--- a/output/DEG/Filter_DEG_Run32_Day8_TIM3n_WT_KO.xlsx
+++ b/output/DEG/Filter_DEG_Run32_Day8_TIM3n_WT_KO.xlsx
@@ -938,19 +938,19 @@
         <v>749.272113934412</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.0499462613499</v>
+        <v>-1.04994626466134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.252802248569855</v>
+        <v>0.252800622102345</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.15323149730517</v>
+        <v>-4.1532582314464</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0000327812806166093</v>
+        <v>0.0000327774493941918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00321061164926513</v>
+        <v>0.00321023641781922</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -961,19 +961,19 @@
         <v>78.9702039035521</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.02701479410973</v>
+        <v>-1.02701448488359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.252296608513883</v>
+        <v>0.252300406209034</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.0706642874005</v>
+        <v>-4.07060178901453</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0000468792666607837</v>
+        <v>0.0000468918462801638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00407822043909606</v>
+        <v>0.00407931479198437</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -984,19 +984,19 @@
         <v>544.478931014848</v>
       </c>
       <c r="B4" t="n">
-        <v>1.04220003326474</v>
+        <v>1.04220003451246</v>
       </c>
       <c r="C4" t="n">
-        <v>0.335733459384128</v>
+        <v>0.335728982733964</v>
       </c>
       <c r="D4" t="n">
-        <v>3.10424833788256</v>
+        <v>3.10428973401536</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00190763138545568</v>
+        <v>0.00190736447632417</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0453568497741223</v>
+        <v>0.0453505036018619</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1007,19 +1007,19 @@
         <v>109.580576544825</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.76514882099491</v>
+        <v>-1.7651488427184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.351888837474293</v>
+        <v>0.351886957658775</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.01621146514448</v>
+        <v>-5.01623832398491</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000000527003230371784</v>
+        <v>0.000000526929599961105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00013209916566048</v>
+        <v>0.000132080709386861</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1030,19 +1030,19 @@
         <v>250.85091112112</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.81792424935688</v>
+        <v>-1.81792424953626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.347225303712503</v>
+        <v>0.347221504455218</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.23557537402888</v>
+        <v>-5.23563266160182</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000000164471686467235</v>
+        <v>0.000000164420676134423</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0000565667853759056</v>
+        <v>0.0000565492413802785</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1053,19 +1053,19 @@
         <v>60.2191809362242</v>
       </c>
       <c r="B7" t="n">
-        <v>2.49531414997924</v>
+        <v>2.49531397221969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.641503705545707</v>
+        <v>0.641493219855566</v>
       </c>
       <c r="D7" t="n">
-        <v>3.889789144486</v>
+        <v>3.88985244891836</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000100331360351665</v>
+        <v>0.000100305191590917</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00709952386718074</v>
+        <v>0.00709767214563669</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1076,19 +1076,19 @@
         <v>81.6478775724913</v>
       </c>
       <c r="B8" t="n">
-        <v>2.37133906777282</v>
+        <v>2.37133892242269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.53712995668762</v>
+        <v>0.537121862735552</v>
       </c>
       <c r="D8" t="n">
-        <v>4.41483301805846</v>
+        <v>4.41489927508351</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000101087988887759</v>
+        <v>0.000010105703282173</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00135040292019452</v>
+        <v>0.00135079608684251</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1099,19 +1099,19 @@
         <v>69.0223483413481</v>
       </c>
       <c r="B9" t="n">
-        <v>1.1947951341898</v>
+        <v>1.19479509503406</v>
       </c>
       <c r="C9" t="n">
-        <v>0.383643811509076</v>
+        <v>0.383642319112696</v>
       </c>
       <c r="D9" t="n">
-        <v>3.11433443821244</v>
+        <v>3.11434645113561</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00184360389887418</v>
+        <v>0.00184352883129791</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0443633712168211</v>
+        <v>0.0443555604153058</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1122,19 +1122,19 @@
         <v>74.2066548478122</v>
       </c>
       <c r="B10" t="n">
-        <v>1.30195645341629</v>
+        <v>1.30195645953467</v>
       </c>
       <c r="C10" t="n">
-        <v>0.37628244507097</v>
+        <v>0.376280948803348</v>
       </c>
       <c r="D10" t="n">
-        <v>3.46005100814823</v>
+        <v>3.46006478317641</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000540073072437616</v>
+        <v>0.000540045444679223</v>
       </c>
       <c r="F10" t="n">
-        <v>0.020684569836367</v>
+        <v>0.0206829103644343</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1145,19 +1145,19 @@
         <v>297.311179695121</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.31823963289664</v>
+        <v>-2.31823965900604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.344779318310631</v>
+        <v>0.344775133902874</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.72383611713047</v>
+        <v>-6.72391779756109</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0000000000177001505047568</v>
+        <v>0.0000000000176902257881397</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000000261767525814848</v>
+        <v>0.0000000261620749180798</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1168,19 +1168,19 @@
         <v>60.8275710962621</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.17268920492116</v>
+        <v>-1.17268924801338</v>
       </c>
       <c r="C12" t="n">
-        <v>0.331804743288228</v>
+        <v>0.331806182419581</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.53427498745091</v>
+        <v>-3.53425978823526</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000408895425121465</v>
+        <v>0.00040891894120909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0178909894737318</v>
+        <v>0.0178920184069267</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1191,19 +1191,19 @@
         <v>51.6159375409204</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.19062099826051</v>
+        <v>-5.19061942032927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.596038455833939</v>
+        <v>0.596029786017784</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.70853373210312</v>
+        <v>-8.70865775854764</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00000000000000000307830733708839</v>
+        <v>0.00000000000000000307494155630266</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0000000000000151750290694001</v>
+        <v>0.0000000000000151584368920533</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1214,19 +1214,19 @@
         <v>267.291849756045</v>
       </c>
       <c r="B14" t="n">
-        <v>1.83226228056766</v>
+        <v>1.83226224985627</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5944640064528</v>
+        <v>0.594450280999952</v>
       </c>
       <c r="D14" t="n">
-        <v>3.0822089490344</v>
+        <v>3.08228006348006</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00205470553212993</v>
+        <v>0.00205421468201319</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0471848448985552</v>
+        <v>0.0471735728762314</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -1237,19 +1237,19 @@
         <v>3683.57223306145</v>
       </c>
       <c r="B15" t="n">
-        <v>1.23880163188246</v>
+        <v>1.23880162952117</v>
       </c>
       <c r="C15" t="n">
-        <v>0.399666468894029</v>
+        <v>0.399658853540185</v>
       </c>
       <c r="D15" t="n">
-        <v>3.09958860274296</v>
+        <v>3.09964765836623</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00193789606188263</v>
+        <v>0.00193750975680381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0455648020799833</v>
+        <v>0.0455730683783979</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -1260,19 +1260,19 @@
         <v>88.9266322229821</v>
       </c>
       <c r="B16" t="n">
-        <v>1.13292596699408</v>
+        <v>1.13292617682092</v>
       </c>
       <c r="C16" t="n">
-        <v>0.243199440539307</v>
+        <v>0.243202815036856</v>
       </c>
       <c r="D16" t="n">
-        <v>4.65842340953483</v>
+        <v>4.6583596355545</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0000031864031399793</v>
+        <v>0.00000318739022748671</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000541651908473032</v>
+        <v>0.000541819702003459</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -1283,19 +1283,19 @@
         <v>50.4847706542855</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.3279319050931</v>
+        <v>-2.32793204748607</v>
       </c>
       <c r="C17" t="n">
-        <v>0.661612746593045</v>
+        <v>0.661601021253479</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.51857172807011</v>
+        <v>-3.51863430179647</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000433876508296465</v>
+        <v>0.000433774196413606</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0181839907572191</v>
+        <v>0.0181927314251624</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -1306,19 +1306,19 @@
         <v>58.841497414357</v>
       </c>
       <c r="B18" t="n">
-        <v>1.59701659780097</v>
+        <v>1.59701643989451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.520233158257231</v>
+        <v>0.520227069470579</v>
       </c>
       <c r="D18" t="n">
-        <v>3.069809320019</v>
+        <v>3.06984494582289</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00214195474944202</v>
+        <v>0.00214169927693032</v>
       </c>
       <c r="F18" t="n">
-        <v>0.048463018882906</v>
+        <v>0.0484666906120947</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -1329,19 +1329,19 @@
         <v>321.431148433584</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.07605252185707</v>
+        <v>-1.07605249176462</v>
       </c>
       <c r="C19" t="n">
-        <v>0.140717949128342</v>
+        <v>0.140721711945023</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.64687467748448</v>
+        <v>-7.64666999066225</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0000000000000205922839308239</v>
+        <v>0.0000000000000206250747119818</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000000000050756547842159</v>
+        <v>0.0000000000508373716525832</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -1352,19 +1352,19 @@
         <v>79.0132955466062</v>
       </c>
       <c r="B20" t="n">
-        <v>2.14543482271417</v>
+        <v>2.14543470223974</v>
       </c>
       <c r="C20" t="n">
-        <v>0.646372803259043</v>
+        <v>0.646360772771999</v>
       </c>
       <c r="D20" t="n">
-        <v>3.31919104872108</v>
+        <v>3.31925264127458</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000902786413737726</v>
+        <v>0.000902587297636425</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0290317674030446</v>
+        <v>0.0290339066498713</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1375,19 +1375,19 @@
         <v>73.0486915868231</v>
       </c>
       <c r="B21" t="n">
-        <v>1.70039312869057</v>
+        <v>1.70039312811838</v>
       </c>
       <c r="C21" t="n">
-        <v>0.526575328299233</v>
+        <v>0.526568148004725</v>
       </c>
       <c r="D21" t="n">
-        <v>3.2291545716405</v>
+        <v>3.22919860337456</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00124156769135671</v>
+        <v>0.00124137653651047</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0346444237499517</v>
+        <v>0.0346390898084026</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1398,19 +1398,19 @@
         <v>51.7709934540432</v>
       </c>
       <c r="B22" t="n">
-        <v>2.03590427629581</v>
+        <v>2.03590420472471</v>
       </c>
       <c r="C22" t="n">
-        <v>0.654194730548702</v>
+        <v>0.654184127356279</v>
       </c>
       <c r="D22" t="n">
-        <v>3.11207684994376</v>
+        <v>3.1121271819179</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00185776130922599</v>
+        <v>0.00185744459021113</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0445290632125496</v>
+        <v>0.0445214717092907</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1421,19 +1421,19 @@
         <v>350.768755702783</v>
       </c>
       <c r="B23" t="n">
-        <v>1.43477334384853</v>
+        <v>1.43477333717094</v>
       </c>
       <c r="C23" t="n">
-        <v>0.455410338163586</v>
+        <v>0.455401855049944</v>
       </c>
       <c r="D23" t="n">
-        <v>3.15050674877995</v>
+        <v>3.15056542098097</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00162987491077239</v>
+        <v>0.00162954757346704</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0407683010884836</v>
+        <v>0.0407621635903388</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1444,19 +1444,19 @@
         <v>182.546864576435</v>
       </c>
       <c r="B24" t="n">
-        <v>-4.08841607460711</v>
+        <v>-4.08841630228495</v>
       </c>
       <c r="C24" t="n">
-        <v>0.486603327451167</v>
+        <v>0.486595506133589</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.40194845362499</v>
+        <v>-8.40208397066973</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000000000000000043913060242894</v>
+        <v>0.0000000000000000438623998548243</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00000000000016235756198304</v>
+        <v>0.000000000000162170257863249</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1467,19 +1467,19 @@
         <v>627.272219667942</v>
       </c>
       <c r="B25" t="n">
-        <v>1.31090235236163</v>
+        <v>1.31090234942497</v>
       </c>
       <c r="C25" t="n">
-        <v>0.331883028416619</v>
+        <v>0.331878568122218</v>
       </c>
       <c r="D25" t="n">
-        <v>3.94989270351007</v>
+        <v>3.94994577939185</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000078186234299802</v>
+        <v>0.0000781688988150519</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00596028978896789</v>
+        <v>0.00595896827100929</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1490,19 +1490,19 @@
         <v>148.205844931417</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.55845408346436</v>
+        <v>-1.55845421218437</v>
       </c>
       <c r="C26" t="n">
-        <v>0.472730321616492</v>
+        <v>0.472722658536099</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.29670852958037</v>
+        <v>-3.29676224323688</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000978249641487106</v>
+        <v>0.000978062587158141</v>
       </c>
       <c r="F26" t="n">
-        <v>0.030781561591389</v>
+        <v>0.0307756757478335</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1513,19 +1513,19 @@
         <v>215.686562022166</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.50609203898038</v>
+        <v>-1.50609204680494</v>
       </c>
       <c r="C27" t="n">
-        <v>0.354723401342012</v>
+        <v>0.354719512001462</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.24582092211126</v>
+        <v>-4.24586749769416</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0000217794531468862</v>
+        <v>0.0000217749289330141</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00242177693676165</v>
+        <v>0.00242127386458906</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1536,19 +1536,19 @@
         <v>901.777237406733</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.28580087794201</v>
+        <v>-1.28580088356287</v>
       </c>
       <c r="C28" t="n">
-        <v>0.345960897110457</v>
+        <v>0.345955720908952</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.71660753767639</v>
+        <v>-3.71666316193472</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000201915720890692</v>
+        <v>0.000201871291812319</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0111139145002399</v>
+        <v>0.011119935272969</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1559,19 +1559,19 @@
         <v>317.274840222373</v>
       </c>
       <c r="B29" t="n">
-        <v>1.87078696871803</v>
+        <v>1.87078695926</v>
       </c>
       <c r="C29" t="n">
-        <v>0.546203888990751</v>
+        <v>0.54619188105139</v>
       </c>
       <c r="D29" t="n">
-        <v>3.42507075915329</v>
+        <v>3.42514604145861</v>
       </c>
       <c r="E29" t="n">
-        <v>0.000614639318442557</v>
+        <v>0.000614469024627335</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0221704899523097</v>
+        <v>0.0221643473297894</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1582,19 +1582,19 @@
         <v>157.869484559393</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.59679092598693</v>
+        <v>-1.59679091147855</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245856106868418</v>
+        <v>0.245857251531136</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.49481904812529</v>
+        <v>-6.49478875052148</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0000000000831332721423342</v>
+        <v>0.0000000000831500038280141</v>
       </c>
       <c r="F30" t="n">
-        <v>0.000000102454830142748</v>
+        <v>0.000000102475450551042</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1605,19 +1605,19 @@
         <v>2688.0516911981</v>
       </c>
       <c r="B31" t="n">
-        <v>1.08272384405325</v>
+        <v>1.08272384100572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.353775162193534</v>
+        <v>0.353769330363072</v>
       </c>
       <c r="D31" t="n">
-        <v>3.06048575411562</v>
+        <v>3.06053619711613</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00220978272879653</v>
+        <v>0.00220941052400888</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0492903438258139</v>
+        <v>0.049283517706738</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1628,19 +1628,19 @@
         <v>1265.74610743008</v>
       </c>
       <c r="B32" t="n">
-        <v>1.13765342042759</v>
+        <v>1.13765341424574</v>
       </c>
       <c r="C32" t="n">
-        <v>0.357189504410069</v>
+        <v>0.3571837588941</v>
       </c>
       <c r="D32" t="n">
-        <v>3.18501357509517</v>
+        <v>3.18506479065033</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00144747218032196</v>
+        <v>0.00144721602860154</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03735892857728</v>
+        <v>0.0373523173594907</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1651,19 +1651,19 @@
         <v>55.1712706880249</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.23308160096527</v>
+        <v>-1.23308160846183</v>
       </c>
       <c r="C33" t="n">
-        <v>0.389931629725601</v>
+        <v>0.389931148960802</v>
       </c>
       <c r="D33" t="n">
-        <v>-3.16230207288647</v>
+        <v>-3.16230599106557</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00156527101775999</v>
+        <v>0.00156524995497871</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0397745585595402</v>
+        <v>0.0397740233405157</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1674,19 +1674,19 @@
         <v>479.577550468555</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.20333705644349</v>
+        <v>-1.20333705096008</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1965394579792</v>
+        <v>0.196540324001203</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.12262325751829</v>
+        <v>-6.12259625130522</v>
       </c>
       <c r="E34" t="n">
-        <v>0.000000000920471603550472</v>
+        <v>0.000000000920627683182092</v>
       </c>
       <c r="F34" t="n">
-        <v>0.000000680642727245397</v>
+        <v>0.000000680758140328998</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1697,19 +1697,19 @@
         <v>631.499901769942</v>
       </c>
       <c r="B35" t="n">
-        <v>1.75230378939366</v>
+        <v>1.75230378705041</v>
       </c>
       <c r="C35" t="n">
-        <v>0.456353344634999</v>
+        <v>0.456344196071845</v>
       </c>
       <c r="D35" t="n">
-        <v>3.83979609220393</v>
+        <v>3.83987306540551</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000123136540180733</v>
+        <v>0.000123097940019122</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00802231847018883</v>
+        <v>0.00801980367816211</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1720,19 +1720,19 @@
         <v>62.7818677232803</v>
       </c>
       <c r="B36" t="n">
-        <v>1.7701842555281</v>
+        <v>1.77018419347184</v>
       </c>
       <c r="C36" t="n">
-        <v>0.54715072677121</v>
+        <v>0.547143159279409</v>
       </c>
       <c r="D36" t="n">
-        <v>3.23527717119948</v>
+        <v>3.23532180463187</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00121524699052969</v>
+        <v>0.0012150570206138</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0342982590514189</v>
+        <v>0.0342928974768272</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1743,19 +1743,19 @@
         <v>82.6461165006281</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.48318489952881</v>
+        <v>-2.4831849628469</v>
       </c>
       <c r="C37" t="n">
-        <v>0.51510699802798</v>
+        <v>0.515099825682002</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.82071668417505</v>
+        <v>-4.82078393165658</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00000143043388388679</v>
+        <v>0.00000142995172099231</v>
       </c>
       <c r="F37" t="n">
-        <v>0.000306589662446403</v>
+        <v>0.000306486318866019</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -1766,19 +1766,19 @@
         <v>323.219668052226</v>
       </c>
       <c r="B38" t="n">
-        <v>1.49055450816443</v>
+        <v>1.49055450498475</v>
       </c>
       <c r="C38" t="n">
-        <v>0.453274162056721</v>
+        <v>0.453265768910347</v>
       </c>
       <c r="D38" t="n">
-        <v>3.28841710588813</v>
+        <v>3.28847799066769</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0010075244934165</v>
+        <v>0.00100730660054924</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0311070558103062</v>
+        <v>0.0311057014088331</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -1789,19 +1789,19 @@
         <v>150.304708960381</v>
       </c>
       <c r="B39" t="n">
-        <v>1.62314813202313</v>
+        <v>1.62314809834675</v>
       </c>
       <c r="C39" t="n">
-        <v>0.475388849685623</v>
+        <v>0.475381232072818</v>
       </c>
       <c r="D39" t="n">
-        <v>3.4143588624271</v>
+        <v>3.41441350401928</v>
       </c>
       <c r="E39" t="n">
-        <v>0.000639323073315985</v>
+        <v>0.000639194853926401</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0227836772432604</v>
+        <v>0.0227883655744939</v>
       </c>
       <c r="G39" t="s">
         <v>44</v>
@@ -1812,19 +1812,19 @@
         <v>445.350827553781</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.3418781601503</v>
+        <v>-1.34187815736708</v>
       </c>
       <c r="C40" t="n">
-        <v>0.293773422410164</v>
+        <v>0.293770711319666</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.56773165230985</v>
+        <v>-4.5677737965747</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00000493030662205795</v>
+        <v>0.00000492931570053545</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000784024781006613</v>
+        <v>0.000783867203174395</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -1835,19 +1835,19 @@
         <v>21100.8316964432</v>
       </c>
       <c r="B41" t="n">
-        <v>1.15408234203502</v>
+        <v>1.15408234175398</v>
       </c>
       <c r="C41" t="n">
-        <v>0.357905686062461</v>
+        <v>0.357899533321961</v>
       </c>
       <c r="D41" t="n">
-        <v>3.22454318826781</v>
+        <v>3.22459862141196</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00126173823514753</v>
+        <v>0.00126149398012539</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0348441961615665</v>
+        <v>0.0348533199242033</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -1858,19 +1858,19 @@
         <v>160.737836830097</v>
       </c>
       <c r="B42" t="n">
-        <v>1.53642878784345</v>
+        <v>1.53642870919494</v>
       </c>
       <c r="C42" t="n">
-        <v>0.340299607206295</v>
+        <v>0.340296737427594</v>
       </c>
       <c r="D42" t="n">
-        <v>4.51492965406818</v>
+        <v>4.51496749809964</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00000633377867863587</v>
+        <v>0.00000633264772988448</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000955818906921897</v>
+        <v>0.000955648237523077</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -1881,19 +1881,19 @@
         <v>85.4146666160906</v>
       </c>
       <c r="B43" t="n">
-        <v>1.34847559830879</v>
+        <v>1.34847557136094</v>
       </c>
       <c r="C43" t="n">
-        <v>0.362744693185783</v>
+        <v>0.362743185450663</v>
       </c>
       <c r="D43" t="n">
-        <v>3.71742336591029</v>
+        <v>3.71743874302042</v>
       </c>
       <c r="E43" t="n">
-        <v>0.000201265009518985</v>
+        <v>0.000201252763545932</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0111139145002399</v>
+        <v>0.011119935272969</v>
       </c>
       <c r="G43" t="s">
         <v>48</v>
@@ -1904,19 +1904,19 @@
         <v>97.7635379528304</v>
       </c>
       <c r="B44" t="n">
-        <v>1.44412240895276</v>
+        <v>1.44412244066281</v>
       </c>
       <c r="C44" t="n">
-        <v>0.437641118056128</v>
+        <v>0.437635756479204</v>
       </c>
       <c r="D44" t="n">
-        <v>3.29978685587663</v>
+        <v>3.2998273547866</v>
       </c>
       <c r="E44" t="n">
-        <v>0.000967582853963638</v>
+        <v>0.000967443240794568</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0305108375847937</v>
+        <v>0.0305064351558867</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -1927,19 +1927,19 @@
         <v>815.176510515518</v>
       </c>
       <c r="B45" t="n">
-        <v>1.45334012307656</v>
+        <v>1.45334019470326</v>
       </c>
       <c r="C45" t="n">
-        <v>0.156742560776488</v>
+        <v>0.15674461852633</v>
       </c>
       <c r="D45" t="n">
-        <v>9.27214737258888</v>
+        <v>9.27202610441855</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0000000000000000000182435362847698</v>
+        <v>0.0000000000000000000182642946333536</v>
       </c>
       <c r="F45" t="n">
-        <v>0.000000000000000269803658115461</v>
+        <v>0.000000000000000270110653332666</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -1950,19 +1950,19 @@
         <v>57.9148490762278</v>
       </c>
       <c r="B46" t="n">
-        <v>3.34242107061148</v>
+        <v>3.3424206750848</v>
       </c>
       <c r="C46" t="n">
-        <v>0.640662460521253</v>
+        <v>0.640651403823852</v>
       </c>
       <c r="D46" t="n">
-        <v>5.21713269713358</v>
+        <v>5.21722211975953</v>
       </c>
       <c r="E46" t="n">
-        <v>0.000000181714082414512</v>
+        <v>0.000000181626408633243</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0000597193236628492</v>
+        <v>0.0000596905101617118</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -1973,19 +1973,19 @@
         <v>711.392144227681</v>
       </c>
       <c r="B47" t="n">
-        <v>1.06022471508925</v>
+        <v>1.06022471889577</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280229080084989</v>
+        <v>0.280226496997732</v>
       </c>
       <c r="D47" t="n">
-        <v>3.78342145921367</v>
+        <v>3.78345634782833</v>
       </c>
       <c r="E47" t="n">
-        <v>0.000154687152120327</v>
+        <v>0.000154665460641401</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00918742286227921</v>
+        <v>0.00918613452781395</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -1996,19 +1996,19 @@
         <v>4509.18968087113</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.25574012135424</v>
+        <v>-1.25574012133548</v>
       </c>
       <c r="C48" t="n">
-        <v>0.20067926127522</v>
+        <v>0.200679006000475</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.2574483948895</v>
+        <v>-6.25745635461496</v>
       </c>
       <c r="E48" t="n">
-        <v>0.000000000391327080966244</v>
+        <v>0.000000000391307115304558</v>
       </c>
       <c r="F48" t="n">
-        <v>0.000000340431541200575</v>
+        <v>0.00000034041417224936</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2019,19 +2019,19 @@
         <v>101.947973619396</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.19315083753125</v>
+        <v>-1.19315081925593</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270038992396482</v>
+        <v>0.270040628966436</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.4184390814917</v>
+        <v>-4.41841223604998</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00000994162927469732</v>
+        <v>0.00000994286396147198</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00135040292019452</v>
+        <v>0.00135079608684251</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2042,19 +2042,19 @@
         <v>1441.20640788207</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.2087847175176</v>
+        <v>-1.20878471676002</v>
       </c>
       <c r="C50" t="n">
-        <v>0.254206016949223</v>
+        <v>0.254204023263605</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.7551381042214</v>
+        <v>-4.75517539510591</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00000198310804630162</v>
+        <v>0.00000198274201814419</v>
       </c>
       <c r="F50" t="n">
-        <v>0.000388200731245428</v>
+        <v>0.000388334019719666</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -2065,19 +2065,19 @@
         <v>90.7071496022507</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.3506529214546</v>
+        <v>-1.35065288866298</v>
       </c>
       <c r="C51" t="n">
-        <v>0.354086502707776</v>
+        <v>0.354084989886727</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.81447163652346</v>
+        <v>-3.8144878411679</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000136474609618503</v>
+        <v>0.000136465655317443</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00869966811055193</v>
+        <v>0.00869909731245544</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -2088,19 +2088,19 @@
         <v>1919.12598840425</v>
       </c>
       <c r="B52" t="n">
-        <v>1.46429370549277</v>
+        <v>1.46429370514809</v>
       </c>
       <c r="C52" t="n">
-        <v>0.44847321046179</v>
+        <v>0.448463847015204</v>
       </c>
       <c r="D52" t="n">
-        <v>3.26506393544666</v>
+        <v>3.26513210572902</v>
       </c>
       <c r="E52" t="n">
-        <v>0.00109439370794566</v>
+        <v>0.00109413034315349</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0326969465592088</v>
+        <v>0.0326890780704988</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -2111,19 +2111,19 @@
         <v>961.795828310729</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.48484547086035</v>
+        <v>-1.48484547735332</v>
       </c>
       <c r="C53" t="n">
-        <v>0.309890884607027</v>
+        <v>0.309886978937131</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.79151064008636</v>
+        <v>-4.79157105098811</v>
       </c>
       <c r="E53" t="n">
-        <v>0.00000165530240425467</v>
+        <v>0.00000165480397734767</v>
       </c>
       <c r="F53" t="n">
-        <v>0.000349718103664605</v>
+        <v>0.000349612800299925</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -2134,19 +2134,19 @@
         <v>145.998804098178</v>
       </c>
       <c r="B54" t="n">
-        <v>1.50394702719462</v>
+        <v>1.50394705274259</v>
       </c>
       <c r="C54" t="n">
-        <v>0.236159526867185</v>
+        <v>0.23616124359004</v>
       </c>
       <c r="D54" t="n">
-        <v>6.36835213529385</v>
+        <v>6.36830595012172</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000000000191069848429416</v>
+        <v>0.000000000191127379541812</v>
       </c>
       <c r="F54" t="n">
-        <v>0.000000188382132561508</v>
+        <v>0.000000188438854402924</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -2157,19 +2157,19 @@
         <v>177.199715225682</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.3612170850706</v>
+        <v>-1.36121712322905</v>
       </c>
       <c r="C55" t="n">
-        <v>0.227601276040663</v>
+        <v>0.227602859424993</v>
       </c>
       <c r="D55" t="n">
-        <v>-5.98070937364781</v>
+        <v>-5.98066793478772</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00000000222167954533312</v>
+        <v>0.0000000022222448558613</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00000131425675183726</v>
+        <v>0.00000131459116693331</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2180,19 +2180,19 @@
         <v>543.939976216812</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.02628951883776</v>
+        <v>-1.0262895144686</v>
       </c>
       <c r="C56" t="n">
-        <v>0.196471885813614</v>
+        <v>0.196472643571272</v>
       </c>
       <c r="D56" t="n">
-        <v>-5.22359478857636</v>
+        <v>-5.2235746199257</v>
       </c>
       <c r="E56" t="n">
-        <v>0.00000017548256981356</v>
+        <v>0.000000175501693545549</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0000589820846584713</v>
+        <v>0.0000589885124055709</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -2203,19 +2203,19 @@
         <v>232.489406153993</v>
       </c>
       <c r="B57" t="n">
-        <v>1.53498013488092</v>
+        <v>1.53498008648702</v>
       </c>
       <c r="C57" t="n">
-        <v>0.404636109670721</v>
+        <v>0.404630053642346</v>
       </c>
       <c r="D57" t="n">
-        <v>3.7934828311048</v>
+        <v>3.7935394879091</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000148548906673723</v>
+        <v>0.00014851499997623</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00900364664261348</v>
+        <v>0.00900159153544452</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2226,19 +2226,19 @@
         <v>60.3946234798401</v>
       </c>
       <c r="B58" t="n">
-        <v>1.1480431353519</v>
+        <v>1.14804315336137</v>
       </c>
       <c r="C58" t="n">
-        <v>0.338097398694626</v>
+        <v>0.338098562288494</v>
       </c>
       <c r="D58" t="n">
-        <v>3.39559884158952</v>
+        <v>3.39558720862516</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000684786438069531</v>
+        <v>0.000684815539308607</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0237611185947479</v>
+        <v>0.0237832890117498</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -2249,19 +2249,19 @@
         <v>432.253054550379</v>
       </c>
       <c r="B59" t="n">
-        <v>1.2536466641329</v>
+        <v>1.25364665122164</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242222697127944</v>
+        <v>0.24222195717139</v>
       </c>
       <c r="D59" t="n">
-        <v>5.17559534675116</v>
+        <v>5.17561110421788</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000000227185372472643</v>
+        <v>0.000000227166197629594</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0000679455208232112</v>
+        <v>0.0000679883413056843</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -2272,19 +2272,19 @@
         <v>8217.23968217386</v>
       </c>
       <c r="B60" t="n">
-        <v>1.07584692514841</v>
+        <v>1.0758469252491</v>
       </c>
       <c r="C60" t="n">
-        <v>0.310123252392119</v>
+        <v>0.310118922486362</v>
       </c>
       <c r="D60" t="n">
-        <v>3.46909468042116</v>
+        <v>3.46914311652949</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000522215382160189</v>
+        <v>0.000522121239006342</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0203237981230711</v>
+        <v>0.0203201342201705</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -2295,19 +2295,19 @@
         <v>1291.16888306189</v>
       </c>
       <c r="B61" t="n">
-        <v>1.27327705193782</v>
+        <v>1.27327705842239</v>
       </c>
       <c r="C61" t="n">
-        <v>0.415982743982259</v>
+        <v>0.415974795366166</v>
       </c>
       <c r="D61" t="n">
-        <v>3.06088911224675</v>
+        <v>3.0609476165535</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00220680806877962</v>
+        <v>0.00220637691980383</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0492903438258139</v>
+        <v>0.049283517706738</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -2318,19 +2318,19 @@
         <v>707.967298944985</v>
       </c>
       <c r="B62" t="n">
-        <v>1.02351084666352</v>
+        <v>1.02351085322537</v>
       </c>
       <c r="C62" t="n">
-        <v>0.300931663277156</v>
+        <v>0.300928325748358</v>
       </c>
       <c r="D62" t="n">
-        <v>3.40114043008122</v>
+        <v>3.40117817317487</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000671053454154606</v>
+        <v>0.000670960804600621</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0234614882588475</v>
+        <v>0.0234582490289328</v>
       </c>
       <c r="G62" t="s">
         <v>67</v>
@@ -2341,19 +2341,19 @@
         <v>590.995960173553</v>
       </c>
       <c r="B63" t="n">
-        <v>1.24711178895066</v>
+        <v>1.2471117777954</v>
       </c>
       <c r="C63" t="n">
-        <v>0.348012121333576</v>
+        <v>0.348007091157934</v>
       </c>
       <c r="D63" t="n">
-        <v>3.58352974652652</v>
+        <v>3.58358151164634</v>
       </c>
       <c r="E63" t="n">
-        <v>0.000338982139584735</v>
+        <v>0.000338914934761833</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0157510812994374</v>
+        <v>0.0157559144627494</v>
       </c>
       <c r="G63" t="s">
         <v>68</v>
@@ -2364,19 +2364,19 @@
         <v>58.8177018764974</v>
       </c>
       <c r="B64" t="n">
-        <v>1.03656858420687</v>
+        <v>1.03656868952576</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312191452310761</v>
+        <v>0.312193941031998</v>
       </c>
       <c r="D64" t="n">
-        <v>3.32029777412051</v>
+        <v>3.32027164300258</v>
       </c>
       <c r="E64" t="n">
-        <v>0.000899214796418535</v>
+        <v>0.000899298975421221</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0290317674030446</v>
+        <v>0.0290339066498713</v>
       </c>
       <c r="G64" t="s">
         <v>69</v>
@@ -2387,19 +2387,19 @@
         <v>387.864395122173</v>
       </c>
       <c r="B65" t="n">
-        <v>1.70792617229656</v>
+        <v>1.70792618036475</v>
       </c>
       <c r="C65" t="n">
-        <v>0.529582264463391</v>
+        <v>0.529570709895744</v>
       </c>
       <c r="D65" t="n">
-        <v>3.22504412799236</v>
+        <v>3.22511450963931</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00125953252954147</v>
+        <v>0.00125922291498601</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0348441961615665</v>
+        <v>0.0348533199242033</v>
       </c>
       <c r="G65" t="s">
         <v>70</v>
@@ -2410,19 +2410,19 @@
         <v>290.984449179523</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.02838723577822</v>
+        <v>-1.02838723264989</v>
       </c>
       <c r="C66" t="n">
-        <v>0.229693708473818</v>
+        <v>0.229693982432321</v>
       </c>
       <c r="D66" t="n">
-        <v>-4.4772111635589</v>
+        <v>-4.47720580992106</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00000756244400295225</v>
+        <v>0.00000756263358039098</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00111840984359661</v>
+        <v>0.00111843788020402</v>
       </c>
       <c r="G66" t="s">
         <v>71</v>
@@ -2433,19 +2433,19 @@
         <v>391.761578304674</v>
       </c>
       <c r="B67" t="n">
-        <v>1.81876310319115</v>
+        <v>1.81876306804856</v>
       </c>
       <c r="C67" t="n">
-        <v>0.555279751824071</v>
+        <v>0.555267152291915</v>
       </c>
       <c r="D67" t="n">
-        <v>3.27539964714469</v>
+        <v>3.27547390574331</v>
       </c>
       <c r="E67" t="n">
-        <v>0.00105512593537808</v>
+        <v>0.00105484858698086</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0319759374145622</v>
+        <v>0.0319675322804508</v>
       </c>
       <c r="G67" t="s">
         <v>72</v>
@@ -2456,19 +2456,19 @@
         <v>134.076105312573</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.02873095136863</v>
+        <v>-1.0287309274478</v>
       </c>
       <c r="C68" t="n">
-        <v>0.262713126427552</v>
+        <v>0.262713918517698</v>
       </c>
       <c r="D68" t="n">
-        <v>-3.91579577829859</v>
+        <v>-3.91578388100703</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0000901064994249162</v>
+        <v>0.0000901109434908383</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00662977621888102</v>
+        <v>0.0066301032004279</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -2479,19 +2479,19 @@
         <v>521.618750746675</v>
       </c>
       <c r="B69" t="n">
-        <v>1.63042907084659</v>
+        <v>1.63042905774527</v>
       </c>
       <c r="C69" t="n">
-        <v>0.51876219505544</v>
+        <v>0.518750814193814</v>
       </c>
       <c r="D69" t="n">
-        <v>3.14292191371491</v>
+        <v>3.14299084094761</v>
       </c>
       <c r="E69" t="n">
-        <v>0.00167270455953669</v>
+        <v>0.00167231072617393</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0413317156196312</v>
+        <v>0.0413477889720858</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -2502,19 +2502,19 @@
         <v>352.783126062703</v>
       </c>
       <c r="B70" t="n">
-        <v>1.38716674548889</v>
+        <v>1.38716670841905</v>
       </c>
       <c r="C70" t="n">
-        <v>0.434668276581041</v>
+        <v>0.434660542218977</v>
       </c>
       <c r="D70" t="n">
-        <v>3.19132271717618</v>
+        <v>3.19137941837888</v>
       </c>
       <c r="E70" t="n">
-        <v>0.00141622994838024</v>
+        <v>0.00141595201025138</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0370916407174592</v>
+        <v>0.0370911864976594</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -2525,19 +2525,19 @@
         <v>141.110773591687</v>
       </c>
       <c r="B71" t="n">
-        <v>1.53016915627386</v>
+        <v>1.53016913288313</v>
       </c>
       <c r="C71" t="n">
-        <v>0.449884352223225</v>
+        <v>0.449877660545067</v>
       </c>
       <c r="D71" t="n">
-        <v>3.40125000727879</v>
+        <v>3.40130054697357</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000670784503270666</v>
+        <v>0.000670660490290989</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0234614882588475</v>
+        <v>0.0234582490289328</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -2548,19 +2548,19 @@
         <v>1369.61682918542</v>
       </c>
       <c r="B72" t="n">
-        <v>1.54852456697893</v>
+        <v>1.54852456513573</v>
       </c>
       <c r="C72" t="n">
-        <v>0.482796026522767</v>
+        <v>0.482785417309361</v>
       </c>
       <c r="D72" t="n">
-        <v>3.2074095102477</v>
+        <v>3.2074799892795</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00133936189374005</v>
+        <v>0.00133903375770575</v>
       </c>
       <c r="F72" t="n">
-        <v>0.036211742315396</v>
+        <v>0.0362028706448088</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -2571,19 +2571,19 @@
         <v>203.437260922796</v>
       </c>
       <c r="B73" t="n">
-        <v>1.20144906972595</v>
+        <v>1.20144905091812</v>
       </c>
       <c r="C73" t="n">
-        <v>0.379105894489949</v>
+        <v>0.379101134475861</v>
       </c>
       <c r="D73" t="n">
-        <v>3.169164835441</v>
+        <v>3.16920457803224</v>
       </c>
       <c r="E73" t="n">
-        <v>0.00152877666445228</v>
+        <v>0.00152856762531084</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0389811691216979</v>
+        <v>0.0389758389840035</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2594,19 +2594,19 @@
         <v>66.0074159102828</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.3971544353352</v>
+        <v>-1.39715443892387</v>
       </c>
       <c r="C74" t="n">
-        <v>0.326862342311666</v>
+        <v>0.326863604570877</v>
       </c>
       <c r="D74" t="n">
-        <v>-4.2744429518987</v>
+        <v>-4.27442645613029</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0000191615757796185</v>
+        <v>0.0000191629943814991</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00221391050159983</v>
+        <v>0.00221407440553117</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -2617,19 +2617,19 @@
         <v>19987.806975612</v>
       </c>
       <c r="B75" t="n">
-        <v>1.58626758382521</v>
+        <v>1.58626758343066</v>
       </c>
       <c r="C75" t="n">
-        <v>0.465018509892125</v>
+        <v>0.465008232970255</v>
       </c>
       <c r="D75" t="n">
-        <v>3.41119235058663</v>
+        <v>3.4112677388491</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000646794457795227</v>
+        <v>0.000646615639476261</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0229938539334942</v>
+        <v>0.0229874968562847</v>
       </c>
       <c r="G75" t="s">
         <v>80</v>
@@ -2672,10 +2672,10 @@
         <v>3.25766758078544</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00112331910075323</v>
+        <v>0.00112331910075322</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0329618376607926</v>
+        <v>0.0329618376607924</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2695,10 +2695,10 @@
         <v>3.75655096012052</v>
       </c>
       <c r="E78" t="n">
-        <v>0.00017227120428291</v>
+        <v>0.000172271204282908</v>
       </c>
       <c r="F78" t="n">
-        <v>0.009913302879922</v>
+        <v>0.0099133028799219</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2718,10 +2718,10 @@
         <v>3.25647893824134</v>
       </c>
       <c r="E79" t="n">
-        <v>0.00112803299004776</v>
+        <v>0.00112803299004777</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0329693278454868</v>
+        <v>0.032969327845487</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2741,10 +2741,10 @@
         <v>4.72346632556475</v>
       </c>
       <c r="E80" t="n">
-        <v>0.00000231858365711928</v>
+        <v>0.00000231858365711925</v>
       </c>
       <c r="F80" t="n">
-        <v>0.000436595121478029</v>
+        <v>0.000436636691286826</v>
       </c>
       <c r="G80" t="s">
         <v>85</v>
@@ -2767,7 +2767,7 @@
         <v>0.00130008071205032</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0355395446405031</v>
+        <v>0.035539544640503</v>
       </c>
       <c r="G81" t="s">
         <v>86</v>
@@ -2778,19 +2778,19 @@
         <v>113.739122201599</v>
       </c>
       <c r="B82" t="n">
-        <v>-24.8790127643631</v>
+        <v>-24.8790128260385</v>
       </c>
       <c r="C82" t="n">
         <v>3.02648194168162</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.22043985186954</v>
+        <v>-8.22043987224814</v>
       </c>
       <c r="E82" t="n">
-        <v>0.000000000000000202758157426849</v>
+        <v>0.000000000000000202758122971835</v>
       </c>
       <c r="F82" t="n">
-        <v>0.000000000000599718078037135</v>
+        <v>0.000000000000599717976126094</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
@@ -2801,19 +2801,19 @@
         <v>126.248436110769</v>
       </c>
       <c r="B83" t="n">
-        <v>-10.1682585880457</v>
+        <v>-10.1682585880301</v>
       </c>
       <c r="C83" t="n">
         <v>3.02645316153235</v>
       </c>
       <c r="D83" t="n">
-        <v>-3.35979380658822</v>
+        <v>-3.35979380658307</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000780006640499053</v>
+        <v>0.000780006640513587</v>
       </c>
       <c r="F83" t="n">
-        <v>0.026276806848156</v>
+        <v>0.0262768068486456</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -2824,19 +2824,19 @@
         <v>232.299059307785</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05345529044228</v>
+        <v>1.05345528055526</v>
       </c>
       <c r="C84" t="n">
-        <v>0.265943066372614</v>
+        <v>0.265942282954343</v>
       </c>
       <c r="D84" t="n">
-        <v>3.96120607621437</v>
+        <v>3.96121770803972</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0000745721374247472</v>
+        <v>0.0000745685042421766</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00573902801013644</v>
+        <v>0.00574099568935</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
@@ -2847,19 +2847,19 @@
         <v>737.080415525223</v>
       </c>
       <c r="B85" t="n">
-        <v>1.61632623653464</v>
+        <v>1.61632623306755</v>
       </c>
       <c r="C85" t="n">
-        <v>0.504586149438801</v>
+        <v>0.504574978612077</v>
       </c>
       <c r="D85" t="n">
-        <v>3.20327111303453</v>
+        <v>3.20334202364442</v>
       </c>
       <c r="E85" t="n">
-        <v>0.00135876000791665</v>
+        <v>0.00135842545418114</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0364158300066022</v>
+        <v>0.0364102975358288</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -2870,19 +2870,19 @@
         <v>175.289580282679</v>
       </c>
       <c r="B86" t="n">
-        <v>1.93971172531376</v>
+        <v>1.93971182249628</v>
       </c>
       <c r="C86" t="n">
-        <v>0.604437606676025</v>
+        <v>0.604424718907071</v>
       </c>
       <c r="D86" t="n">
-        <v>3.20911820159701</v>
+        <v>3.20918678839558</v>
       </c>
       <c r="E86" t="n">
-        <v>0.00133142744121257</v>
+        <v>0.0013311098598214</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0361293218864088</v>
+        <v>0.0361207040677041</v>
       </c>
       <c r="G86" t="s">
         <v>91</v>
@@ -2893,19 +2893,19 @@
         <v>1090.36430630559</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.17463709610262</v>
+        <v>-1.17463709833299</v>
       </c>
       <c r="C87" t="n">
-        <v>0.214759204185738</v>
+        <v>0.214758748535182</v>
       </c>
       <c r="D87" t="n">
-        <v>-5.46955414812729</v>
+        <v>-5.46956576318732</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0000000451169073548146</v>
+        <v>0.0000000451139509359729</v>
       </c>
       <c r="F87" t="n">
-        <v>0.000021523675576463</v>
+        <v>0.0000215222651739388</v>
       </c>
       <c r="G87" t="s">
         <v>92</v>
@@ -2916,19 +2916,19 @@
         <v>290.898894860709</v>
       </c>
       <c r="B88" t="n">
-        <v>1.8234421836135</v>
+        <v>1.8234421823258</v>
       </c>
       <c r="C88" t="n">
-        <v>0.504055526426941</v>
+        <v>0.504045388178833</v>
       </c>
       <c r="D88" t="n">
-        <v>3.61754229050754</v>
+        <v>3.61761505033124</v>
       </c>
       <c r="E88" t="n">
-        <v>0.000297413746515299</v>
+        <v>0.000297330176052541</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0144211537613599</v>
+        <v>0.0144171015529214</v>
       </c>
       <c r="G88" t="s">
         <v>93</v>
@@ -2939,19 +2939,19 @@
         <v>347.59997582736</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.95526978335288</v>
+        <v>-1.95526975819957</v>
       </c>
       <c r="C89" t="n">
-        <v>0.305453372433594</v>
+        <v>0.305450567990471</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.4012054205686</v>
+        <v>-6.40126410981356</v>
       </c>
       <c r="E89" t="n">
-        <v>0.000000000154155001684439</v>
+        <v>0.000000000154095748014379</v>
       </c>
       <c r="F89" t="n">
-        <v>0.000000162842737136512</v>
+        <v>0.000000162780144098904</v>
       </c>
       <c r="G89" t="s">
         <v>94</v>
@@ -2962,19 +2962,19 @@
         <v>397.331189386517</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.31152289972174</v>
+        <v>-1.31152289637851</v>
       </c>
       <c r="C90" t="n">
-        <v>0.178504698770077</v>
+        <v>0.178506649287905</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.34727381832705</v>
+        <v>-7.34719351693848</v>
       </c>
       <c r="E90" t="n">
-        <v>0.000000000000202290197684746</v>
+        <v>0.000000000000202411719695779</v>
       </c>
       <c r="F90" t="n">
-        <v>0.000000000332407748173301</v>
+        <v>0.000000000332607435842319</v>
       </c>
       <c r="G90" t="s">
         <v>95</v>
@@ -2985,19 +2985,19 @@
         <v>473.103649651856</v>
       </c>
       <c r="B91" t="n">
-        <v>1.47453097793549</v>
+        <v>1.47453096448794</v>
       </c>
       <c r="C91" t="n">
-        <v>0.410992563748434</v>
+        <v>0.410985420018331</v>
       </c>
       <c r="D91" t="n">
-        <v>3.58773152605759</v>
+        <v>3.58779385512549</v>
       </c>
       <c r="E91" t="n">
-        <v>0.000333567494951797</v>
+        <v>0.00033348778684773</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0156111698824118</v>
+        <v>0.0156074394926933</v>
       </c>
       <c r="G91" t="s">
         <v>96</v>
@@ -3008,19 +3008,19 @@
         <v>64.0310375397116</v>
       </c>
       <c r="B92" t="n">
-        <v>1.49938122689851</v>
+        <v>1.49938126699847</v>
       </c>
       <c r="C92" t="n">
-        <v>0.403905780560996</v>
+        <v>0.403904004221647</v>
       </c>
       <c r="D92" t="n">
-        <v>3.71220541784763</v>
+        <v>3.71222184312801</v>
       </c>
       <c r="E92" t="n">
-        <v>0.000205461127036895</v>
+        <v>0.000205447790324781</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0111302732884566</v>
+        <v>0.0111295508099384</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
@@ -3031,19 +3031,19 @@
         <v>176.869248193233</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.01289263433345</v>
+        <v>-1.01289274453643</v>
       </c>
       <c r="C93" t="n">
-        <v>0.166904265644517</v>
+        <v>0.166908396655549</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.06870429837172</v>
+        <v>-6.06855475717468</v>
       </c>
       <c r="E93" t="n">
-        <v>0.00000000128946311505437</v>
+        <v>0.00000000129066412039075</v>
       </c>
       <c r="F93" t="n">
-        <v>0.000000866812273115414</v>
+        <v>0.00000086761962165722</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -3054,19 +3054,19 @@
         <v>966.308370460456</v>
       </c>
       <c r="B94" t="n">
-        <v>1.2706020072767</v>
+        <v>1.27060198914674</v>
       </c>
       <c r="C94" t="n">
-        <v>0.388282112015536</v>
+        <v>0.388275302416331</v>
       </c>
       <c r="D94" t="n">
-        <v>3.27236812605432</v>
+        <v>3.27242547038011</v>
       </c>
       <c r="E94" t="n">
-        <v>0.00106650612737281</v>
+        <v>0.00106628980983217</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0321052852581498</v>
+        <v>0.0321168228057189</v>
       </c>
       <c r="G94" t="s">
         <v>99</v>
@@ -3077,19 +3077,19 @@
         <v>177.886617641134</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03760633028169</v>
+        <v>1.03760633156424</v>
       </c>
       <c r="C95" t="n">
-        <v>0.260789852226966</v>
+        <v>0.260789939149295</v>
       </c>
       <c r="D95" t="n">
-        <v>3.97870669207885</v>
+        <v>3.97870537087796</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0000692911583735844</v>
+        <v>0.0000692915433605395</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00547993016677508</v>
+        <v>0.00547996061368459</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
@@ -3100,19 +3100,19 @@
         <v>52.9316632589887</v>
       </c>
       <c r="B96" t="n">
-        <v>1.57604023640568</v>
+        <v>1.57604020847517</v>
       </c>
       <c r="C96" t="n">
-        <v>0.477288173247334</v>
+        <v>0.477284454237157</v>
       </c>
       <c r="D96" t="n">
-        <v>3.3020726779856</v>
+        <v>3.30209834928347</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000959731993315889</v>
+        <v>0.000959644158925853</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0303279411306596</v>
+        <v>0.0303251655263984</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
@@ -3123,19 +3123,19 @@
         <v>69.1863074537981</v>
       </c>
       <c r="B97" t="n">
-        <v>2.40782844681215</v>
+        <v>2.40782809675103</v>
       </c>
       <c r="C97" t="n">
-        <v>0.698485234379874</v>
+        <v>0.698468264672111</v>
       </c>
       <c r="D97" t="n">
-        <v>3.44721452694681</v>
+        <v>3.44729777791888</v>
       </c>
       <c r="E97" t="n">
-        <v>0.000566398637266333</v>
+        <v>0.000566224117807996</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0209491789620323</v>
+        <v>0.0209500759471988</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3146,19 +3146,19 @@
         <v>51.7053656522362</v>
       </c>
       <c r="B98" t="n">
-        <v>1.7807298914675</v>
+        <v>1.78072990625296</v>
       </c>
       <c r="C98" t="n">
-        <v>0.382491000500852</v>
+        <v>0.38249143389217</v>
       </c>
       <c r="D98" t="n">
-        <v>4.65561252195668</v>
+        <v>4.65560728545615</v>
       </c>
       <c r="E98" t="n">
-        <v>0.00000323018931579541</v>
+        <v>0.00000323027142259674</v>
       </c>
       <c r="F98" t="n">
-        <v>0.000542855338537481</v>
+        <v>0.000542869137145264</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
@@ -3169,19 +3169,19 @@
         <v>175.804352573726</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.63526246419573</v>
+        <v>-1.63526246441013</v>
       </c>
       <c r="C99" t="n">
-        <v>0.267726171795804</v>
+        <v>0.267726100051961</v>
       </c>
       <c r="D99" t="n">
-        <v>-6.10796640921214</v>
+        <v>-6.10796804679391</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0000000010090858362155</v>
+        <v>0.00000000100907548542102</v>
       </c>
       <c r="F99" t="n">
-        <v>0.000000710636687228143</v>
+        <v>0.000000710629397804354</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -3192,19 +3192,19 @@
         <v>73.7672140618766</v>
       </c>
       <c r="B100" t="n">
-        <v>2.08915400897788</v>
+        <v>2.08915392527859</v>
       </c>
       <c r="C100" t="n">
-        <v>0.437917230039028</v>
+        <v>0.437912850887572</v>
       </c>
       <c r="D100" t="n">
-        <v>4.77065953488902</v>
+        <v>4.77070705060206</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0000018362368507658</v>
+        <v>0.00000183580370681412</v>
       </c>
       <c r="F100" t="n">
-        <v>0.000377168149805215</v>
+        <v>0.000377079180834361</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
@@ -3215,19 +3215,19 @@
         <v>86.4347428028218</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.70173481814874</v>
+        <v>-1.70173487445847</v>
       </c>
       <c r="C101" t="n">
-        <v>0.254647861922752</v>
+        <v>0.254651086999746</v>
       </c>
       <c r="D101" t="n">
-        <v>-6.68269823787081</v>
+        <v>-6.68261382469638</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0000000000234582307992885</v>
+        <v>0.0000000000234717519092579</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0000000315385250264252</v>
+        <v>0.0000000315567035441832</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3238,19 +3238,19 @@
         <v>65.9250529201632</v>
       </c>
       <c r="B102" t="n">
-        <v>1.49505052629642</v>
+        <v>1.49505073076952</v>
       </c>
       <c r="C102" t="n">
-        <v>0.231465157573813</v>
+        <v>0.231470850189745</v>
       </c>
       <c r="D102" t="n">
-        <v>6.45907376283904</v>
+        <v>6.45891579671468</v>
       </c>
       <c r="E102" t="n">
-        <v>0.000000000105345758242162</v>
+        <v>0.000000000105455765720825</v>
       </c>
       <c r="F102" t="n">
-        <v>0.000000119842955280256</v>
+        <v>0.000000119968101480407</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
@@ -3261,19 +3261,19 @@
         <v>2014.61556136217</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.4380820902043</v>
+        <v>-1.43808209663019</v>
       </c>
       <c r="C103" t="n">
-        <v>0.307961360857307</v>
+        <v>0.307957273973902</v>
       </c>
       <c r="D103" t="n">
-        <v>-4.66968351549345</v>
+        <v>-4.66974550746303</v>
       </c>
       <c r="E103" t="n">
-        <v>0.00000301664112864534</v>
+        <v>0.00000301573098061853</v>
       </c>
       <c r="F103" t="n">
-        <v>0.000531108400613523</v>
+        <v>0.000530948160385327</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
@@ -3284,19 +3284,19 @@
         <v>143.97186253917</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.47947249115247</v>
+        <v>-1.47947252081574</v>
       </c>
       <c r="C104" t="n">
-        <v>0.339726892011776</v>
+        <v>0.339724467102639</v>
       </c>
       <c r="D104" t="n">
-        <v>-4.35488778174555</v>
+        <v>-4.35491895368477</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0000133135103252258</v>
+        <v>0.0000133116159472069</v>
       </c>
       <c r="F104" t="n">
-        <v>0.00166858901864207</v>
+        <v>0.00166835159528172</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -3307,19 +3307,19 @@
         <v>574.105915457151</v>
       </c>
       <c r="B105" t="n">
-        <v>1.2876405175584</v>
+        <v>1.28764051958327</v>
       </c>
       <c r="C105" t="n">
-        <v>0.41330023594753</v>
+        <v>0.413292826449278</v>
       </c>
       <c r="D105" t="n">
-        <v>3.11550878892282</v>
+        <v>3.11556464854657</v>
       </c>
       <c r="E105" t="n">
-        <v>0.00183627876445829</v>
+        <v>0.00183593100145261</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0443013485278525</v>
+        <v>0.0442929585325981</v>
       </c>
       <c r="G105" t="s">
         <v>110</v>
@@ -3330,19 +3330,19 @@
         <v>129.390946681177</v>
       </c>
       <c r="B106" t="n">
-        <v>1.41538305155629</v>
+        <v>1.4153830239024</v>
       </c>
       <c r="C106" t="n">
-        <v>0.368122757500506</v>
+        <v>0.36811960397385</v>
       </c>
       <c r="D106" t="n">
-        <v>3.84486702524589</v>
+        <v>3.84489988749132</v>
       </c>
       <c r="E106" t="n">
-        <v>0.000120617828326273</v>
+        <v>0.000120601665337679</v>
       </c>
       <c r="F106" t="n">
-        <v>0.00796346903177343</v>
+        <v>0.00796240191374525</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
@@ -3353,19 +3353,19 @@
         <v>619.96932379604</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.09949335633833</v>
+        <v>-1.09949335721822</v>
       </c>
       <c r="C107" t="n">
-        <v>0.226348995513322</v>
+        <v>0.226348454371715</v>
       </c>
       <c r="D107" t="n">
-        <v>-4.85751374263828</v>
+        <v>-4.85752535960599</v>
       </c>
       <c r="E107" t="n">
-        <v>0.00000118868889657217</v>
+        <v>0.00000118861918001256</v>
       </c>
       <c r="F107" t="n">
-        <v>0.000258522354285381</v>
+        <v>0.000258507191958908</v>
       </c>
       <c r="G107" t="s">
         <v>112</v>
@@ -3376,19 +3376,19 @@
         <v>72.4868251720828</v>
       </c>
       <c r="B108" t="n">
-        <v>1.65209890555128</v>
+        <v>1.65209889217974</v>
       </c>
       <c r="C108" t="n">
-        <v>0.423254612786378</v>
+        <v>0.423251228354469</v>
       </c>
       <c r="D108" t="n">
-        <v>3.90332167835137</v>
+        <v>3.90335285878041</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0000948814627978407</v>
+        <v>0.000094869234733881</v>
       </c>
       <c r="F108" t="n">
-        <v>0.00685598458474936</v>
+        <v>0.0068593505300869</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -3399,19 +3399,19 @@
         <v>306.706096005186</v>
       </c>
       <c r="B109" t="n">
-        <v>1.84824238654323</v>
+        <v>1.84824236593516</v>
       </c>
       <c r="C109" t="n">
-        <v>0.534291035223481</v>
+        <v>0.534279715334607</v>
       </c>
       <c r="D109" t="n">
-        <v>3.45924274355484</v>
+        <v>3.45931599663605</v>
       </c>
       <c r="E109" t="n">
-        <v>0.000541696468297608</v>
+        <v>0.000541549152677614</v>
       </c>
       <c r="F109" t="n">
-        <v>0.020684569836367</v>
+        <v>0.0206829103644343</v>
       </c>
       <c r="G109" t="s">
         <v>114</v>
@@ -3422,19 +3422,19 @@
         <v>219.528271346195</v>
       </c>
       <c r="B110" t="n">
-        <v>1.57870750953472</v>
+        <v>1.57870754131719</v>
       </c>
       <c r="C110" t="n">
-        <v>0.379913275163486</v>
+        <v>0.379908206053806</v>
       </c>
       <c r="D110" t="n">
-        <v>4.15544181459667</v>
+        <v>4.15549734425479</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0000324659561802464</v>
+        <v>0.0000324580715330627</v>
       </c>
       <c r="F110" t="n">
-        <v>0.00320092683966443</v>
+        <v>0.00320014946601642</v>
       </c>
       <c r="G110" t="s">
         <v>115</v>
@@ -3445,19 +3445,19 @@
         <v>91.8125628666483</v>
       </c>
       <c r="B111" t="n">
-        <v>1.87738962561722</v>
+        <v>1.87738972856117</v>
       </c>
       <c r="C111" t="n">
-        <v>0.568137603916941</v>
+        <v>0.568127804414773</v>
       </c>
       <c r="D111" t="n">
-        <v>3.30446288482549</v>
+        <v>3.30452006392305</v>
       </c>
       <c r="E111" t="n">
-        <v>0.000951585747590016</v>
+        <v>0.000951391657898443</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0301349071115819</v>
+        <v>0.0301287606609423</v>
       </c>
       <c r="G111" t="s">
         <v>116</v>
@@ -3468,19 +3468,19 @@
         <v>1781.10990541718</v>
       </c>
       <c r="B112" t="n">
-        <v>1.55311032911086</v>
+        <v>1.55311032937729</v>
       </c>
       <c r="C112" t="n">
-        <v>0.469774423140036</v>
+        <v>0.469764242635995</v>
       </c>
       <c r="D112" t="n">
-        <v>3.30607681603792</v>
+        <v>3.3061484643069</v>
       </c>
       <c r="E112" t="n">
-        <v>0.000946121461057068</v>
+        <v>0.000945879556676065</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0300907318012322</v>
+        <v>0.0300830382014674</v>
       </c>
       <c r="G112" t="s">
         <v>117</v>
@@ -3491,19 +3491,19 @@
         <v>2682.03219820314</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15777885549792</v>
+        <v>1.15777885299974</v>
       </c>
       <c r="C113" t="n">
-        <v>0.362143393918338</v>
+        <v>0.362137247916124</v>
       </c>
       <c r="D113" t="n">
-        <v>3.19701774198039</v>
+        <v>3.1970719931795</v>
       </c>
       <c r="E113" t="n">
-        <v>0.00138856385528829</v>
+        <v>0.00138830271935723</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0367135979009497</v>
+        <v>0.0367291751638176</v>
       </c>
       <c r="G113" t="s">
         <v>118</v>
@@ -3514,19 +3514,19 @@
         <v>627.944575976391</v>
       </c>
       <c r="B114" t="n">
-        <v>1.21704026346649</v>
+        <v>1.21704026626132</v>
       </c>
       <c r="C114" t="n">
-        <v>0.368029471080803</v>
+        <v>0.368023694827372</v>
       </c>
       <c r="D114" t="n">
-        <v>3.30690979690396</v>
+        <v>3.3069617075395</v>
       </c>
       <c r="E114" t="n">
-        <v>0.000943312623790387</v>
+        <v>0.000943137835480179</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0300660568819742</v>
+        <v>0.0300604858812853</v>
       </c>
       <c r="G114" t="s">
         <v>119</v>
@@ -3537,19 +3537,19 @@
         <v>98.424665805586</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17385448826821</v>
+        <v>1.17385449919536</v>
       </c>
       <c r="C115" t="n">
-        <v>0.384957473853974</v>
+        <v>0.384954534812087</v>
       </c>
       <c r="D115" t="n">
-        <v>3.04930951597393</v>
+        <v>3.04933282515653</v>
       </c>
       <c r="E115" t="n">
-        <v>0.00229368036520044</v>
+        <v>0.00229350239226125</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0499788352874131</v>
+        <v>0.0499894157777112</v>
       </c>
       <c r="G115" t="s">
         <v>120</v>
@@ -3560,19 +3560,19 @@
         <v>426.941576457126</v>
       </c>
       <c r="B116" t="n">
-        <v>1.4589271271259</v>
+        <v>1.45892711151529</v>
       </c>
       <c r="C116" t="n">
-        <v>0.46507816427295</v>
+        <v>0.465069032123566</v>
       </c>
       <c r="D116" t="n">
-        <v>3.13695038640788</v>
+        <v>3.1370119503628</v>
       </c>
       <c r="E116" t="n">
-        <v>0.00170715012623002</v>
+        <v>0.00170679170279951</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0417997404251917</v>
+        <v>0.0417909643918906</v>
       </c>
       <c r="G116" t="s">
         <v>121</v>
@@ -3583,19 +3583,19 @@
         <v>1452.15252043862</v>
       </c>
       <c r="B117" t="n">
-        <v>1.27249184714682</v>
+        <v>1.27249184402876</v>
       </c>
       <c r="C117" t="n">
-        <v>0.414284972450255</v>
+        <v>0.414277015468017</v>
       </c>
       <c r="D117" t="n">
-        <v>3.0715375448469</v>
+        <v>3.07159653207215</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0021295938022636</v>
+        <v>0.0021291730590133</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0484557714000564</v>
+        <v>0.0484666906120947</v>
       </c>
       <c r="G117" t="s">
         <v>122</v>
@@ -3606,19 +3606,19 @@
         <v>353.273340754517</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05215977556339</v>
+        <v>1.05215980613811</v>
       </c>
       <c r="C118" t="n">
-        <v>0.334446828593453</v>
+        <v>0.334442877893061</v>
       </c>
       <c r="D118" t="n">
-        <v>3.14597025777862</v>
+        <v>3.14600751185541</v>
       </c>
       <c r="E118" t="n">
-        <v>0.00165536838577067</v>
+        <v>0.00165515754519589</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0410071072984296</v>
+        <v>0.0410018843147438</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -3629,19 +3629,19 @@
         <v>119.433245676456</v>
       </c>
       <c r="B119" t="n">
-        <v>1.44395798298047</v>
+        <v>1.44395790301996</v>
       </c>
       <c r="C119" t="n">
-        <v>0.458379575193477</v>
+        <v>0.458373149755856</v>
       </c>
       <c r="D119" t="n">
-        <v>3.1501359596378</v>
+        <v>3.15017994354394</v>
       </c>
       <c r="E119" t="n">
-        <v>0.00163194497561582</v>
+        <v>0.00163169929308814</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0407683010884836</v>
+        <v>0.0407621635903388</v>
       </c>
       <c r="G119" t="s">
         <v>124</v>
@@ -3652,19 +3652,19 @@
         <v>185.905229614222</v>
       </c>
       <c r="B120" t="n">
-        <v>1.13176793533502</v>
+        <v>1.13176794620835</v>
       </c>
       <c r="C120" t="n">
-        <v>0.28113613422813</v>
+        <v>0.28113524095216</v>
       </c>
       <c r="D120" t="n">
-        <v>4.02569359659985</v>
+        <v>4.02570642647018</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0000568076205685998</v>
+        <v>0.0000568045230240814</v>
       </c>
       <c r="F120" t="n">
-        <v>0.00464159061098907</v>
+        <v>0.00464133751935436</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3675,19 +3675,19 @@
         <v>109.027420135149</v>
       </c>
       <c r="B121" t="n">
-        <v>1.74509431116357</v>
+        <v>1.7450941840116</v>
       </c>
       <c r="C121" t="n">
-        <v>0.535139532458219</v>
+        <v>0.535130471555525</v>
       </c>
       <c r="D121" t="n">
-        <v>3.26100802747145</v>
+        <v>3.26106300569828</v>
       </c>
       <c r="E121" t="n">
-        <v>0.00111016897296581</v>
+        <v>0.00110995373917457</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0329023826476781</v>
+        <v>0.0328960037047148</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
@@ -3698,19 +3698,19 @@
         <v>103.049719710814</v>
       </c>
       <c r="B122" t="n">
-        <v>2.0406324337469</v>
+        <v>2.04063236038876</v>
       </c>
       <c r="C122" t="n">
-        <v>0.591952052890697</v>
+        <v>0.591941400190437</v>
       </c>
       <c r="D122" t="n">
-        <v>3.44729344848425</v>
+        <v>3.44735536276438</v>
       </c>
       <c r="E122" t="n">
-        <v>0.000566233192390426</v>
+        <v>0.000566103431688596</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0209491789620323</v>
+        <v>0.0209500759471988</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
@@ -3721,19 +3721,19 @@
         <v>76.9092632600208</v>
       </c>
       <c r="B123" t="n">
-        <v>2.26755515668235</v>
+        <v>2.26755511068539</v>
       </c>
       <c r="C123" t="n">
-        <v>0.507478368023008</v>
+        <v>0.507472093187158</v>
       </c>
       <c r="D123" t="n">
-        <v>4.46827943724204</v>
+        <v>4.46833459637968</v>
       </c>
       <c r="E123" t="n">
-        <v>0.00000788512583892205</v>
+        <v>0.00000788309326577686</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00114987887265272</v>
+        <v>0.00114981736097828</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -3744,19 +3744,19 @@
         <v>164.115588298134</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.08768715629521</v>
+        <v>-1.08768714655026</v>
       </c>
       <c r="C124" t="n">
-        <v>0.283014135697065</v>
+        <v>0.283013578193918</v>
       </c>
       <c r="D124" t="n">
-        <v>-3.84322554637149</v>
+        <v>-3.84323308263671</v>
       </c>
       <c r="E124" t="n">
-        <v>0.000121427778244559</v>
+        <v>0.000121424047958675</v>
       </c>
       <c r="F124" t="n">
-        <v>0.00798131294426125</v>
+        <v>0.00798106775671487</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -3767,19 +3767,19 @@
         <v>140.210413653898</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.68403447013179</v>
+        <v>-1.68403448171482</v>
       </c>
       <c r="C125" t="n">
-        <v>0.319203500596811</v>
+        <v>0.319201987329311</v>
       </c>
       <c r="D125" t="n">
-        <v>-5.275739354309</v>
+        <v>-5.2757644017343</v>
       </c>
       <c r="E125" t="n">
-        <v>0.000000132221906780856</v>
+        <v>0.000000132203846568495</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0000501392251123611</v>
+        <v>0.0000501323765872174</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
@@ -3790,19 +3790,19 @@
         <v>803.855443398773</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.65694012060896</v>
+        <v>-1.65694012187593</v>
       </c>
       <c r="C126" t="n">
-        <v>0.461595285002451</v>
+        <v>0.461585842624925</v>
       </c>
       <c r="D126" t="n">
-        <v>-3.58959498600633</v>
+        <v>-3.58966841888677</v>
       </c>
       <c r="E126" t="n">
-        <v>0.000331192135890841</v>
+        <v>0.000331098855692673</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0156111698824118</v>
+        <v>0.0156074394926933</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -3813,19 +3813,19 @@
         <v>107.164552418198</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.12099888831347</v>
+        <v>-1.1209988778331</v>
       </c>
       <c r="C127" t="n">
-        <v>0.290344566413737</v>
+        <v>0.29034503550097</v>
       </c>
       <c r="D127" t="n">
-        <v>-3.86092600994664</v>
+        <v>-3.86091973606127</v>
       </c>
       <c r="E127" t="n">
-        <v>0.000112958108640782</v>
+        <v>0.000112961009471208</v>
       </c>
       <c r="F127" t="n">
-        <v>0.00762802497118047</v>
+        <v>0.00762822086333191</v>
       </c>
       <c r="G127" t="s">
         <v>132</v>
@@ -3836,19 +3836,19 @@
         <v>78.2660356206283</v>
       </c>
       <c r="B128" t="n">
-        <v>1.78178969771298</v>
+        <v>1.78178966011677</v>
       </c>
       <c r="C128" t="n">
-        <v>0.530868475209205</v>
+        <v>0.530860798307357</v>
       </c>
       <c r="D128" t="n">
-        <v>3.35636750140572</v>
+        <v>3.35641596779792</v>
       </c>
       <c r="E128" t="n">
-        <v>0.000789735518615916</v>
+        <v>0.000789597118095595</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0263271040942327</v>
+        <v>0.0263276260162506</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
@@ -3859,19 +3859,19 @@
         <v>90.7952564129353</v>
       </c>
       <c r="B129" t="n">
-        <v>1.85170939366977</v>
+        <v>1.85170934383575</v>
       </c>
       <c r="C129" t="n">
-        <v>0.347858883958495</v>
+        <v>0.347857825128862</v>
       </c>
       <c r="D129" t="n">
-        <v>5.32316257845152</v>
+        <v>5.32317863813985</v>
       </c>
       <c r="E129" t="n">
-        <v>0.000000101978524413596</v>
+        <v>0.000000101969517802765</v>
       </c>
       <c r="F129" t="n">
-        <v>0.000040761091825748</v>
+        <v>0.0000407574918590565</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
@@ -3882,19 +3882,19 @@
         <v>176.308603476223</v>
       </c>
       <c r="B130" t="n">
-        <v>1.61558870365763</v>
+        <v>1.61558871050754</v>
       </c>
       <c r="C130" t="n">
-        <v>0.520902358726526</v>
+        <v>0.520892507967341</v>
       </c>
       <c r="D130" t="n">
-        <v>3.10151927053534</v>
+        <v>3.10157793747503</v>
       </c>
       <c r="E130" t="n">
-        <v>0.00192530340500502</v>
+        <v>0.00192492193263776</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0455648020799833</v>
+        <v>0.0455730683783979</v>
       </c>
       <c r="G130" t="s">
         <v>135</v>
@@ -3905,19 +3905,19 @@
         <v>2165.64362041818</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03174622590829</v>
+        <v>1.0317462245083</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3298330114291</v>
+        <v>0.329828113530232</v>
       </c>
       <c r="D131" t="n">
-        <v>3.12808660794122</v>
+        <v>3.12813305532164</v>
       </c>
       <c r="E131" t="n">
-        <v>0.00175948326740822</v>
+        <v>0.00175920523201039</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0427976941475331</v>
+        <v>0.042790931210858</v>
       </c>
       <c r="G131" t="s">
         <v>136</v>
@@ -3928,19 +3928,19 @@
         <v>122.555718070293</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.48345469562933</v>
+        <v>-1.48345461589832</v>
       </c>
       <c r="C132" t="n">
-        <v>0.457342285715167</v>
+        <v>0.457335790624483</v>
       </c>
       <c r="D132" t="n">
-        <v>-3.24364210781337</v>
+        <v>-3.24368799973581</v>
       </c>
       <c r="E132" t="n">
-        <v>0.00118011925568154</v>
+        <v>0.00117992915163105</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0336277142047674</v>
+        <v>0.0336222971550512</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
@@ -3951,19 +3951,19 @@
         <v>311.790673448498</v>
       </c>
       <c r="B133" t="n">
-        <v>1.25397789261061</v>
+        <v>1.25397787085162</v>
       </c>
       <c r="C133" t="n">
-        <v>0.392740829325386</v>
+        <v>0.392734848237227</v>
       </c>
       <c r="D133" t="n">
-        <v>3.19288904788579</v>
+        <v>3.19293761803935</v>
       </c>
       <c r="E133" t="n">
-        <v>0.00140857057145208</v>
+        <v>0.00140833367447064</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0370006219914829</v>
+        <v>0.0369943991327643</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
@@ -3974,19 +3974,19 @@
         <v>565.764486289807</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04243253737278</v>
+        <v>1.04243251216701</v>
       </c>
       <c r="C134" t="n">
-        <v>0.34159595443807</v>
+        <v>0.34159119852876</v>
       </c>
       <c r="D134" t="n">
-        <v>3.05165363883655</v>
+        <v>3.05169605264066</v>
       </c>
       <c r="E134" t="n">
-        <v>0.00227584544780865</v>
+        <v>0.00227552392190144</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0498893721626136</v>
+        <v>0.0499298565000006</v>
       </c>
       <c r="G134" t="s">
         <v>139</v>
@@ -3997,19 +3997,19 @@
         <v>2181.12859541071</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28504121416993</v>
+        <v>1.28504121773591</v>
       </c>
       <c r="C135" t="n">
-        <v>0.36128526444698</v>
+        <v>0.361279192967465</v>
       </c>
       <c r="D135" t="n">
-        <v>3.55686030023101</v>
+        <v>3.55692008493729</v>
       </c>
       <c r="E135" t="n">
-        <v>0.000375313610180223</v>
+        <v>0.000375228241449121</v>
       </c>
       <c r="F135" t="n">
-        <v>0.016974045813319</v>
+        <v>0.0169701849015017</v>
       </c>
       <c r="G135" t="s">
         <v>140</v>
@@ -4020,19 +4020,19 @@
         <v>603.707011814365</v>
       </c>
       <c r="B136" t="n">
-        <v>1.09543831885312</v>
+        <v>1.0954383195248</v>
       </c>
       <c r="C136" t="n">
-        <v>0.336597322458918</v>
+        <v>0.336592737629007</v>
       </c>
       <c r="D136" t="n">
-        <v>3.2544475126858</v>
+        <v>3.25449184447999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.00113613152326677</v>
+        <v>0.0011359542168145</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0330911971279805</v>
+        <v>0.0331035503749168</v>
       </c>
       <c r="G136" t="s">
         <v>141</v>
@@ -4043,19 +4043,19 @@
         <v>235.811219745774</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.29868254215599</v>
+        <v>-1.29868254164451</v>
       </c>
       <c r="C137" t="n">
-        <v>0.272790893196811</v>
+        <v>0.272789944520221</v>
       </c>
       <c r="D137" t="n">
-        <v>-4.76072542941903</v>
+        <v>-4.76074198383159</v>
       </c>
       <c r="E137" t="n">
-        <v>0.00000192898334450001</v>
+        <v>0.00000192882510983083</v>
       </c>
       <c r="F137" t="n">
-        <v>0.000388200731245428</v>
+        <v>0.000388334019719666</v>
       </c>
       <c r="G137" t="s">
         <v>142</v>
@@ -4066,19 +4066,19 @@
         <v>73.0525127898902</v>
       </c>
       <c r="B138" t="n">
-        <v>1.11869040642375</v>
+        <v>1.11869034367749</v>
       </c>
       <c r="C138" t="n">
-        <v>0.317080198824808</v>
+        <v>0.317081234918155</v>
       </c>
       <c r="D138" t="n">
-        <v>3.5280992334745</v>
+        <v>3.52808750718486</v>
       </c>
       <c r="E138" t="n">
-        <v>0.000418555215275093</v>
+        <v>0.000418573757968229</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0180518927654705</v>
+        <v>0.0180591807622256</v>
       </c>
       <c r="G138" t="s">
         <v>143</v>
@@ -4089,19 +4089,19 @@
         <v>233.319703888946</v>
       </c>
       <c r="B139" t="n">
-        <v>1.71266473802257</v>
+        <v>1.71266470682633</v>
       </c>
       <c r="C139" t="n">
-        <v>0.399938069539673</v>
+        <v>0.399932243048775</v>
       </c>
       <c r="D139" t="n">
-        <v>4.28232486093119</v>
+        <v>4.28238717081247</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0000184950694007921</v>
+        <v>0.000018489889440312</v>
       </c>
       <c r="F139" t="n">
-        <v>0.00218818865094651</v>
+        <v>0.00218757579946219</v>
       </c>
       <c r="G139" t="s">
         <v>144</v>
@@ -4112,19 +4112,19 @@
         <v>335.223045157027</v>
       </c>
       <c r="B140" t="n">
-        <v>1.32647316711228</v>
+        <v>1.32647315263725</v>
       </c>
       <c r="C140" t="n">
-        <v>0.386425908179208</v>
+        <v>0.386420003575143</v>
       </c>
       <c r="D140" t="n">
-        <v>3.43267141005753</v>
+        <v>3.43272382476263</v>
       </c>
       <c r="E140" t="n">
-        <v>0.000597665955135506</v>
+        <v>0.000597550435023498</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0216522404475576</v>
+        <v>0.0216597386852022</v>
       </c>
       <c r="G140" t="s">
         <v>145</v>
@@ -4135,19 +4135,19 @@
         <v>358.068859259797</v>
       </c>
       <c r="B141" t="n">
-        <v>1.47884386280371</v>
+        <v>1.47884383581955</v>
       </c>
       <c r="C141" t="n">
-        <v>0.484478627622534</v>
+        <v>0.48446910089578</v>
       </c>
       <c r="D141" t="n">
-        <v>3.05244396447536</v>
+        <v>3.05250393283116</v>
       </c>
       <c r="E141" t="n">
-        <v>0.00226986106637158</v>
+        <v>0.00226940757223343</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0498796067021833</v>
+        <v>0.0498696412864192</v>
       </c>
       <c r="G141" t="s">
         <v>146</v>
@@ -4158,19 +4158,19 @@
         <v>120.146191434108</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.33085387463403</v>
+        <v>-1.33085388607844</v>
       </c>
       <c r="C142" t="n">
-        <v>0.311044242876025</v>
+        <v>0.311043553034717</v>
       </c>
       <c r="D142" t="n">
-        <v>-4.27866422579786</v>
+        <v>-4.27867375193562</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0000188018242143069</v>
+        <v>0.0000188010196874004</v>
       </c>
       <c r="F142" t="n">
-        <v>0.00218945022287705</v>
+        <v>0.00218935653666902</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4181,19 +4181,19 @@
         <v>250.765711708863</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.05130001383487</v>
+        <v>-1.05130001283167</v>
       </c>
       <c r="C143" t="n">
-        <v>0.222625737591622</v>
+        <v>0.222626650000192</v>
       </c>
       <c r="D143" t="n">
-        <v>-4.72227526434228</v>
+        <v>-4.72225590615843</v>
       </c>
       <c r="E143" t="n">
-        <v>0.00000233220735660046</v>
+        <v>0.00000233242941454184</v>
       </c>
       <c r="F143" t="n">
-        <v>0.000436595121478029</v>
+        <v>0.000436636691286826</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
@@ -4204,19 +4204,19 @@
         <v>623.38740813147</v>
       </c>
       <c r="B144" t="n">
-        <v>-1.97268164519387</v>
+        <v>-1.97268164044483</v>
       </c>
       <c r="C144" t="n">
-        <v>0.26051247402693</v>
+        <v>0.260510800866378</v>
       </c>
       <c r="D144" t="n">
-        <v>-7.57231166208936</v>
+        <v>-7.57236027790134</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0000000000000366640548991539</v>
+        <v>0.0000000000000366503323202013</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0000000000774606725576553</v>
+        <v>0.0000000000774316806690653</v>
       </c>
       <c r="G144" t="s">
         <v>149</v>
@@ -4227,19 +4227,19 @@
         <v>7072.90389456542</v>
       </c>
       <c r="B145" t="n">
-        <v>1.33750959426232</v>
+        <v>1.33750959225395</v>
       </c>
       <c r="C145" t="n">
-        <v>0.261834545659448</v>
+        <v>0.261832021491596</v>
       </c>
       <c r="D145" t="n">
-        <v>5.10822432117854</v>
+        <v>5.10827355888126</v>
       </c>
       <c r="E145" t="n">
-        <v>0.000000325200436760331</v>
+        <v>0.000000325115723238155</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0000890627640601581</v>
+        <v>0.0000890395635364643</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -4250,19 +4250,19 @@
         <v>105.3924672413</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.29457725394998</v>
+        <v>-1.29457714362226</v>
       </c>
       <c r="C146" t="n">
-        <v>0.246965994818512</v>
+        <v>0.246968616438729</v>
       </c>
       <c r="D146" t="n">
-        <v>-5.24192512779473</v>
+        <v>-5.2418690370055</v>
       </c>
       <c r="E146" t="n">
-        <v>0.000000158909854356419</v>
+        <v>0.000000158958179321946</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0000559551865732637</v>
+        <v>0.0000559722027141014</v>
       </c>
       <c r="G146" t="s">
         <v>151</v>
@@ -4273,19 +4273,19 @@
         <v>852.134096908232</v>
       </c>
       <c r="B147" t="n">
-        <v>1.17115047680912</v>
+        <v>1.17115047851486</v>
       </c>
       <c r="C147" t="n">
-        <v>0.376075663926292</v>
+        <v>0.376069390881338</v>
       </c>
       <c r="D147" t="n">
-        <v>3.1141352369949</v>
+        <v>3.11418718702474</v>
       </c>
       <c r="E147" t="n">
-        <v>0.00184484909719014</v>
+        <v>0.00184452428530753</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0443633712168211</v>
+        <v>0.0443555604153058</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
@@ -4296,19 +4296,19 @@
         <v>91.1759535318749</v>
       </c>
       <c r="B148" t="n">
-        <v>1.70609208961546</v>
+        <v>1.70609207789386</v>
       </c>
       <c r="C148" t="n">
-        <v>0.423748684921461</v>
+        <v>0.423744563323918</v>
       </c>
       <c r="D148" t="n">
-        <v>4.02618851768632</v>
+        <v>4.0262276511845</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0000566882465339179</v>
+        <v>0.0000566788177513257</v>
       </c>
       <c r="F148" t="n">
-        <v>0.00464159061098907</v>
+        <v>0.00464133751935436</v>
       </c>
       <c r="G148" t="s">
         <v>153</v>
@@ -4319,19 +4319,19 @@
         <v>266.056858854017</v>
       </c>
       <c r="B149" t="n">
-        <v>1.71505780745602</v>
+        <v>1.71505778225922</v>
       </c>
       <c r="C149" t="n">
-        <v>0.561353487529933</v>
+        <v>0.561341312546201</v>
       </c>
       <c r="D149" t="n">
-        <v>3.05521894056918</v>
+        <v>3.05528516060906</v>
       </c>
       <c r="E149" t="n">
-        <v>0.00224896281561016</v>
+        <v>0.00224846627537597</v>
       </c>
       <c r="F149" t="n">
-        <v>0.049567676721399</v>
+        <v>0.0495567328562373</v>
       </c>
       <c r="G149" t="s">
         <v>154</v>
@@ -4342,19 +4342,19 @@
         <v>247.874455745168</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.0576198455101</v>
+        <v>-1.05761984880958</v>
       </c>
       <c r="C150" t="n">
-        <v>0.216974058469485</v>
+        <v>0.216975169068251</v>
       </c>
       <c r="D150" t="n">
-        <v>-4.87440688979342</v>
+        <v>-4.87438195509322</v>
       </c>
       <c r="E150" t="n">
-        <v>0.00000109135843712089</v>
+        <v>0.00000109149628064089</v>
       </c>
       <c r="F150" t="n">
-        <v>0.000240897013829566</v>
+        <v>0.000240927440214897</v>
       </c>
       <c r="G150" t="s">
         <v>155</v>
@@ -4365,19 +4365,19 @@
         <v>72.6649447583352</v>
       </c>
       <c r="B151" t="n">
-        <v>1.75620139066592</v>
+        <v>1.75620132443134</v>
       </c>
       <c r="C151" t="n">
-        <v>0.495426372580639</v>
+        <v>0.495420290641665</v>
       </c>
       <c r="D151" t="n">
-        <v>3.5448282284974</v>
+        <v>3.54487161225617</v>
       </c>
       <c r="E151" t="n">
-        <v>0.000392869020501339</v>
+        <v>0.000392804365297296</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0175532928827622</v>
+        <v>0.0175504041038723</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -4388,19 +4388,19 @@
         <v>251.242285354012</v>
       </c>
       <c r="B152" t="n">
-        <v>1.02349142779104</v>
+        <v>1.02349143012386</v>
       </c>
       <c r="C152" t="n">
-        <v>0.245685657167185</v>
+        <v>0.245685574139317</v>
       </c>
       <c r="D152" t="n">
-        <v>4.16585746026915</v>
+        <v>4.16585887758914</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0000310184473671054</v>
+        <v>0.0000310182546352594</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00314199875419262</v>
+        <v>0.00314197923151268</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
@@ -4414,16 +4414,16 @@
         <v>-3.56942338744737</v>
       </c>
       <c r="C153" t="n">
-        <v>0.900815625244428</v>
+        <v>0.900815625244427</v>
       </c>
       <c r="D153" t="n">
         <v>-3.96243502823215</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0000741892002755979</v>
+        <v>0.0000741892002755982</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00573902801013644</v>
+        <v>0.00574099568935</v>
       </c>
       <c r="G153" t="s">
         <v>158</v>
@@ -4434,19 +4434,19 @@
         <v>160.167590253814</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.1851202885786</v>
+        <v>-1.18512032858126</v>
       </c>
       <c r="C154" t="n">
-        <v>0.312664266405637</v>
+        <v>0.312662520929894</v>
       </c>
       <c r="D154" t="n">
-        <v>-3.79039249416842</v>
+        <v>-3.7904137824277</v>
       </c>
       <c r="E154" t="n">
-        <v>0.000150409422466598</v>
+        <v>0.000150396531308407</v>
       </c>
       <c r="F154" t="n">
-        <v>0.00904021366452017</v>
+        <v>0.00904152155089444</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -4457,19 +4457,19 @@
         <v>80.9296568898396</v>
       </c>
       <c r="B155" t="n">
-        <v>1.59771779564678</v>
+        <v>1.59771781100233</v>
       </c>
       <c r="C155" t="n">
-        <v>0.51532764195426</v>
+        <v>0.515320105109372</v>
       </c>
       <c r="D155" t="n">
-        <v>3.10039218852653</v>
+        <v>3.10043756329521</v>
       </c>
       <c r="E155" t="n">
-        <v>0.00193264556564101</v>
+        <v>0.00193234948438791</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0455648020799833</v>
+        <v>0.0455730683783979</v>
       </c>
       <c r="G155" t="s">
         <v>160</v>
@@ -4480,19 +4480,19 @@
         <v>77.0050657286838</v>
       </c>
       <c r="B156" t="n">
-        <v>1.12132245371328</v>
+        <v>1.12132248860796</v>
       </c>
       <c r="C156" t="n">
-        <v>0.268414395806976</v>
+        <v>0.26841726647459</v>
       </c>
       <c r="D156" t="n">
-        <v>4.17757941164845</v>
+        <v>4.17753486329506</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0000294627813651268</v>
+        <v>0.0000294685506451975</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00302586856672819</v>
+        <v>0.00302646107980434</v>
       </c>
       <c r="G156" t="s">
         <v>161</v>
@@ -4503,19 +4503,19 @@
         <v>62.9676433082155</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.21537049959013</v>
+        <v>-1.21537049213761</v>
       </c>
       <c r="C157" t="n">
-        <v>0.335678847863665</v>
+        <v>0.335679948660342</v>
       </c>
       <c r="D157" t="n">
-        <v>-3.62063474456321</v>
+        <v>-3.62062284919909</v>
       </c>
       <c r="E157" t="n">
-        <v>0.000293881151027132</v>
+        <v>0.000293894663811648</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0142967379688824</v>
+        <v>0.0142973953391791</v>
       </c>
       <c r="G157" t="s">
         <v>162</v>
@@ -4526,19 +4526,19 @@
         <v>136.059697661212</v>
       </c>
       <c r="B158" t="n">
-        <v>1.36405334508283</v>
+        <v>1.36405330487927</v>
       </c>
       <c r="C158" t="n">
-        <v>0.407722747091896</v>
+        <v>0.407717820415437</v>
       </c>
       <c r="D158" t="n">
-        <v>3.34554143670426</v>
+        <v>3.34558176409703</v>
       </c>
       <c r="E158" t="n">
-        <v>0.00082122087547747</v>
+        <v>0.000821101460614302</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0271094543023132</v>
+        <v>0.0271055122790735</v>
       </c>
       <c r="G158" t="s">
         <v>163</v>
@@ -4549,19 +4549,19 @@
         <v>1926.36381294601</v>
       </c>
       <c r="B159" t="n">
-        <v>1.47575254151358</v>
+        <v>1.47575253699941</v>
       </c>
       <c r="C159" t="n">
-        <v>0.395379313421996</v>
+        <v>0.395371980996449</v>
       </c>
       <c r="D159" t="n">
-        <v>3.73249811362408</v>
+        <v>3.73256732376456</v>
       </c>
       <c r="E159" t="n">
-        <v>0.000189590117147057</v>
+        <v>0.000189538014744005</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0107427135727503</v>
+        <v>0.0107397613028701</v>
       </c>
       <c r="G159" t="s">
         <v>164</v>
@@ -4572,19 +4572,19 @@
         <v>195.419737986946</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.31518051494489</v>
+        <v>-1.31518055883622</v>
       </c>
       <c r="C160" t="n">
-        <v>0.323047524722017</v>
+        <v>0.323044916403047</v>
       </c>
       <c r="D160" t="n">
-        <v>-4.07116728746521</v>
+        <v>-4.07120029462199</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0000467781397050375</v>
+        <v>0.0000467715109327827</v>
       </c>
       <c r="F160" t="n">
-        <v>0.00407822043909606</v>
+        <v>0.00407931479198437</v>
       </c>
       <c r="G160" t="s">
         <v>165</v>
@@ -4595,19 +4595,19 @@
         <v>74.1888017991671</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.33277090784281</v>
+        <v>-1.33277101814491</v>
       </c>
       <c r="C161" t="n">
-        <v>0.414102529233115</v>
+        <v>0.414099634778437</v>
       </c>
       <c r="D161" t="n">
-        <v>-3.21845633329261</v>
+        <v>-3.21847909587752</v>
       </c>
       <c r="E161" t="n">
-        <v>0.00128882593034755</v>
+        <v>0.00128872364004369</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0353626098031725</v>
+        <v>0.035359803177377</v>
       </c>
       <c r="G161" t="s">
         <v>166</v>
@@ -4618,19 +4618,19 @@
         <v>644.348081798306</v>
       </c>
       <c r="B162" t="n">
-        <v>1.12335874589834</v>
+        <v>1.12335873717351</v>
       </c>
       <c r="C162" t="n">
-        <v>0.307716109710214</v>
+        <v>0.307712573520599</v>
       </c>
       <c r="D162" t="n">
-        <v>3.65063352372498</v>
+        <v>3.65067544793812</v>
       </c>
       <c r="E162" t="n">
-        <v>0.00026159427276254</v>
+        <v>0.000261551573212647</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0131919473419356</v>
+        <v>0.0131918788151578</v>
       </c>
       <c r="G162" t="s">
         <v>167</v>
@@ -4641,19 +4641,19 @@
         <v>696.774945930282</v>
       </c>
       <c r="B163" t="n">
-        <v>1.11119217477429</v>
+        <v>1.11119217209083</v>
       </c>
       <c r="C163" t="n">
-        <v>0.300888035773916</v>
+        <v>0.300884701893512</v>
       </c>
       <c r="D163" t="n">
-        <v>3.69304207100222</v>
+        <v>3.69308298194601</v>
       </c>
       <c r="E163" t="n">
-        <v>0.000221587347167589</v>
+        <v>0.000221551688005436</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0117457178396469</v>
+        <v>0.0117438276484315</v>
       </c>
       <c r="G163" t="s">
         <v>168</v>
@@ -4664,19 +4664,19 @@
         <v>1218.56010327881</v>
       </c>
       <c r="B164" t="n">
-        <v>1.02152240875532</v>
+        <v>1.02152240150279</v>
       </c>
       <c r="C164" t="n">
-        <v>0.31890951805038</v>
+        <v>0.318905181493613</v>
       </c>
       <c r="D164" t="n">
-        <v>3.20317316021263</v>
+        <v>3.20321669506411</v>
       </c>
       <c r="E164" t="n">
-        <v>0.00135922227085296</v>
+        <v>0.00135901680150679</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0364158300066022</v>
+        <v>0.0364102975358288</v>
       </c>
       <c r="G164" t="s">
         <v>169</v>
@@ -4687,19 +4687,19 @@
         <v>86.6486275400126</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.16436704555661</v>
+        <v>-1.16436711925485</v>
       </c>
       <c r="C165" t="n">
-        <v>0.194951515287001</v>
+        <v>0.19495733357112</v>
       </c>
       <c r="D165" t="n">
-        <v>-5.9725980782579</v>
+        <v>-5.97242021075395</v>
       </c>
       <c r="E165" t="n">
-        <v>0.00000000233504677469475</v>
+        <v>0.00000000233759481721115</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00000132819256734464</v>
+        <v>0.0000013296419135283</v>
       </c>
       <c r="G165" t="s">
         <v>170</v>
@@ -4710,19 +4710,19 @@
         <v>74.3655912104847</v>
       </c>
       <c r="B166" t="n">
-        <v>1.36983188457242</v>
+        <v>1.36983178738371</v>
       </c>
       <c r="C166" t="n">
-        <v>0.448023151499755</v>
+        <v>0.448018694402739</v>
       </c>
       <c r="D166" t="n">
-        <v>3.05750245269003</v>
+        <v>3.05753265320738</v>
       </c>
       <c r="E166" t="n">
-        <v>0.00223189814898918</v>
+        <v>0.00223167325791096</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0494124876128757</v>
+        <v>0.0494075086994688</v>
       </c>
       <c r="G166" t="s">
         <v>171</v>
@@ -4733,19 +4733,19 @@
         <v>1460.19159561935</v>
       </c>
       <c r="B167" t="n">
-        <v>1.02525888386234</v>
+        <v>1.02525887983156</v>
       </c>
       <c r="C167" t="n">
-        <v>0.331356539747547</v>
+        <v>0.33135164952934</v>
       </c>
       <c r="D167" t="n">
-        <v>3.09412599685966</v>
+        <v>3.09417164902562</v>
       </c>
       <c r="E167" t="n">
-        <v>0.00197393637005138</v>
+        <v>0.00197363264085259</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0459725117743147</v>
+        <v>0.0459654379930219</v>
       </c>
       <c r="G167" t="s">
         <v>172</v>
@@ -4756,19 +4756,19 @@
         <v>66.5996428016411</v>
       </c>
       <c r="B168" t="n">
-        <v>1.8021800115137</v>
+        <v>1.80217998585841</v>
       </c>
       <c r="C168" t="n">
-        <v>0.517838906217063</v>
+        <v>0.517831740422302</v>
       </c>
       <c r="D168" t="n">
-        <v>3.48019430343512</v>
+        <v>3.48024241308324</v>
       </c>
       <c r="E168" t="n">
-        <v>0.000501050257991336</v>
+        <v>0.00050096028704871</v>
       </c>
       <c r="F168" t="n">
-        <v>0.019866038245131</v>
+        <v>0.0198624710057999</v>
       </c>
       <c r="G168" t="s">
         <v>173</v>
@@ -4779,19 +4779,19 @@
         <v>4593.39838086556</v>
       </c>
       <c r="B169" t="n">
-        <v>1.15066042601916</v>
+        <v>1.15066042484084</v>
       </c>
       <c r="C169" t="n">
-        <v>0.343670466752328</v>
+        <v>0.343664939718171</v>
       </c>
       <c r="D169" t="n">
-        <v>3.34815044450242</v>
+        <v>3.34820428811989</v>
       </c>
       <c r="E169" t="n">
-        <v>0.000813528359234864</v>
+        <v>0.000813370310732687</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0269155948651553</v>
+        <v>0.0269103658286929</v>
       </c>
       <c r="G169" t="s">
         <v>174</v>
@@ -4802,19 +4802,19 @@
         <v>634.058989114801</v>
       </c>
       <c r="B170" t="n">
-        <v>1.22319435094389</v>
+        <v>1.2231943369154</v>
       </c>
       <c r="C170" t="n">
-        <v>0.302329360743866</v>
+        <v>0.3023260335792</v>
       </c>
       <c r="D170" t="n">
-        <v>4.04589996794982</v>
+        <v>4.04594444756927</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0000521224884245284</v>
+        <v>0.0000521125912257394</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00440479703605915</v>
+        <v>0.00440396063792834</v>
       </c>
       <c r="G170" t="s">
         <v>175</v>
@@ -4825,19 +4825,19 @@
         <v>508.91925410196</v>
       </c>
       <c r="B171" t="n">
-        <v>1.82283091857567</v>
+        <v>1.82283089823982</v>
       </c>
       <c r="C171" t="n">
-        <v>0.522841035423983</v>
+        <v>0.522829571679078</v>
       </c>
       <c r="D171" t="n">
-        <v>3.48639604597504</v>
+        <v>3.48647245102407</v>
       </c>
       <c r="E171" t="n">
-        <v>0.000489575617353435</v>
+        <v>0.000489435791069198</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0197284299864849</v>
+        <v>0.019722795406328</v>
       </c>
       <c r="G171" t="s">
         <v>176</v>
@@ -4848,19 +4848,19 @@
         <v>752.6442857824</v>
       </c>
       <c r="B172" t="n">
-        <v>1.12775811976118</v>
+        <v>1.12775810640338</v>
       </c>
       <c r="C172" t="n">
-        <v>0.349355245438439</v>
+        <v>0.349350033285312</v>
       </c>
       <c r="D172" t="n">
-        <v>3.22811274336486</v>
+        <v>3.22816086719061</v>
       </c>
       <c r="E172" t="n">
-        <v>0.00124609851540682</v>
+        <v>0.00124588889303076</v>
       </c>
       <c r="F172" t="n">
-        <v>0.034705369010078</v>
+        <v>0.0346995307703049</v>
       </c>
       <c r="G172" t="s">
         <v>177</v>
@@ -4871,19 +4871,19 @@
         <v>800.450125423518</v>
       </c>
       <c r="B173" t="n">
-        <v>1.69170569198124</v>
+        <v>1.69170568487596</v>
       </c>
       <c r="C173" t="n">
-        <v>0.496033931398301</v>
+        <v>0.49602307480322</v>
       </c>
       <c r="D173" t="n">
-        <v>3.41046364955798</v>
+        <v>3.4105382810005</v>
       </c>
       <c r="E173" t="n">
-        <v>0.000648525283526411</v>
+        <v>0.000648347819590252</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0230000969258323</v>
+        <v>0.0229938031269071</v>
       </c>
       <c r="G173" t="s">
         <v>178</v>
@@ -4894,19 +4894,19 @@
         <v>91.1995172115852</v>
       </c>
       <c r="B174" t="n">
-        <v>1.02703710872987</v>
+        <v>1.02703723954766</v>
       </c>
       <c r="C174" t="n">
-        <v>0.278414303712344</v>
+        <v>0.278416116412268</v>
       </c>
       <c r="D174" t="n">
-        <v>3.68888054613386</v>
+        <v>3.68885699859005</v>
       </c>
       <c r="E174" t="n">
-        <v>0.000225242934987386</v>
+        <v>0.000225263779881572</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0118247339873138</v>
+        <v>0.0118277056977099</v>
       </c>
       <c r="G174" t="s">
         <v>179</v>
@@ -4917,19 +4917,19 @@
         <v>824.289823856819</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.13414674099763</v>
+        <v>-1.13414674454783</v>
       </c>
       <c r="C175" t="n">
-        <v>0.221498723324161</v>
+        <v>0.221498225527392</v>
       </c>
       <c r="D175" t="n">
-        <v>-5.12033082618637</v>
+        <v>-5.12034234968429</v>
       </c>
       <c r="E175" t="n">
-        <v>0.000000305000121982696</v>
+        <v>0.000000304981484326389</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0000851065434717376</v>
+        <v>0.0000851013428623201</v>
       </c>
       <c r="G175" t="s">
         <v>180</v>
@@ -4940,19 +4940,19 @@
         <v>79.5931541038593</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.86963839047724</v>
+        <v>-1.86963844499857</v>
       </c>
       <c r="C176" t="n">
-        <v>0.480562637624882</v>
+        <v>0.480557017404898</v>
       </c>
       <c r="D176" t="n">
-        <v>-3.89051966194809</v>
+        <v>-3.89056527588544</v>
       </c>
       <c r="E176" t="n">
-        <v>0.000100029770877555</v>
+        <v>0.000100010967868937</v>
       </c>
       <c r="F176" t="n">
-        <v>0.00709952386718074</v>
+        <v>0.00709767214563669</v>
       </c>
       <c r="G176" t="s">
         <v>181</v>
@@ -4963,19 +4963,19 @@
         <v>50.7811211945868</v>
       </c>
       <c r="B177" t="n">
-        <v>1.41818502040985</v>
+        <v>1.41818501612544</v>
       </c>
       <c r="C177" t="n">
-        <v>0.390581826547884</v>
+        <v>0.390581887204124</v>
       </c>
       <c r="D177" t="n">
-        <v>3.63095496005108</v>
+        <v>3.63095438520495</v>
       </c>
       <c r="E177" t="n">
-        <v>0.000282374464385928</v>
+        <v>0.000282375093397974</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0139201198460116</v>
+        <v>0.0139201508542088</v>
       </c>
       <c r="G177" t="s">
         <v>182</v>
@@ -4986,19 +4986,19 @@
         <v>294.594383952688</v>
       </c>
       <c r="B178" t="n">
-        <v>1.4267396613044</v>
+        <v>1.42673964295504</v>
       </c>
       <c r="C178" t="n">
-        <v>0.445488734872081</v>
+        <v>0.44548086721415</v>
       </c>
       <c r="D178" t="n">
-        <v>3.20263914577791</v>
+        <v>3.20269566654405</v>
       </c>
       <c r="E178" t="n">
-        <v>0.00136174496570235</v>
+        <v>0.00136147775625893</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0364174435764414</v>
+        <v>0.0364102975358288</v>
       </c>
       <c r="G178" t="s">
         <v>183</v>
@@ -5009,19 +5009,19 @@
         <v>596.011993932237</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.41668881291314</v>
+        <v>-1.41668882788373</v>
       </c>
       <c r="C179" t="n">
-        <v>0.253127245124709</v>
+        <v>0.253125778018091</v>
       </c>
       <c r="D179" t="n">
-        <v>-5.59674566921936</v>
+        <v>-5.59677816687039</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0000000218412747899416</v>
+        <v>0.0000000218371828669295</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0000111382969954636</v>
+        <v>0.0000111362102558283</v>
       </c>
       <c r="G179" t="s">
         <v>184</v>
@@ -5032,19 +5032,19 @@
         <v>1169.00928199681</v>
       </c>
       <c r="B180" t="n">
-        <v>1.01845910374294</v>
+        <v>1.01845910584868</v>
       </c>
       <c r="C180" t="n">
-        <v>0.177670673427391</v>
+        <v>0.177671554320887</v>
       </c>
       <c r="D180" t="n">
-        <v>5.73228594284108</v>
+        <v>5.73225753408601</v>
       </c>
       <c r="E180" t="n">
-        <v>0.00000000990860434496977</v>
+        <v>0.00000000991026455968313</v>
       </c>
       <c r="F180" t="n">
-        <v>0.00000523351248777707</v>
+        <v>0.00000523438937761264</v>
       </c>
       <c r="G180" t="s">
         <v>185</v>
@@ -5055,19 +5055,19 @@
         <v>102.211487356358</v>
       </c>
       <c r="B181" t="n">
-        <v>2.12625076771214</v>
+        <v>2.12625063452827</v>
       </c>
       <c r="C181" t="n">
-        <v>0.51397450522822</v>
+        <v>0.513966657866508</v>
       </c>
       <c r="D181" t="n">
-        <v>4.13687983758654</v>
+        <v>4.13694274129455</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0000352060352843893</v>
+        <v>0.0000351963892051777</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00333764356645972</v>
+        <v>0.00333956631586272</v>
       </c>
       <c r="G181" t="s">
         <v>186</v>
@@ -5078,19 +5078,19 @@
         <v>112.919665428532</v>
       </c>
       <c r="B182" t="n">
-        <v>1.45034763327631</v>
+        <v>1.4503475839478</v>
       </c>
       <c r="C182" t="n">
-        <v>0.431967230422624</v>
+        <v>0.431961963600529</v>
       </c>
       <c r="D182" t="n">
-        <v>3.35754087609223</v>
+        <v>3.35758169969117</v>
       </c>
       <c r="E182" t="n">
-        <v>0.000786391150581623</v>
+        <v>0.000786275031602711</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0263271040942327</v>
+        <v>0.0263276260162506</v>
       </c>
       <c r="G182" t="s">
         <v>187</v>
@@ -5101,19 +5101,19 @@
         <v>102.76409232547</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.26238473068336</v>
+        <v>-1.26238452057502</v>
       </c>
       <c r="C183" t="n">
-        <v>0.229748859267762</v>
+        <v>0.229752568131548</v>
       </c>
       <c r="D183" t="n">
-        <v>-5.49462893834047</v>
+        <v>-5.49453932481062</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0000000391532775751426</v>
+        <v>0.0000000391731632205863</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0000193012607352928</v>
+        <v>0.0000193110636956417</v>
       </c>
       <c r="G183" t="s">
         <v>188</v>
